--- a/StudentData.xlsx
+++ b/StudentData.xlsx
@@ -62,9 +62,6 @@
     <t>A-1</t>
   </si>
   <si>
-    <t>Ms. Dhanashri Sakhare</t>
-  </si>
-  <si>
     <t>A-2</t>
   </si>
   <si>
@@ -174,6 +171,9 @@
   </si>
   <si>
     <t>Patil Swastik Suryaji</t>
+  </si>
+  <si>
+    <t>Ms. Dhanashree Sakhare</t>
   </si>
 </sst>
 </file>
@@ -713,7 +713,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -820,7 +820,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -836,16 +836,16 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>14</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -879,14 +879,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="31"/>
       <c r="D3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" s="33"/>
     </row>
@@ -895,14 +895,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" s="33"/>
     </row>
@@ -911,14 +911,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="31"/>
       <c r="D5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" s="33"/>
     </row>
@@ -927,14 +927,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" s="33"/>
     </row>
@@ -943,19 +943,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -963,14 +963,14 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="34"/>
       <c r="D8" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" s="35"/>
     </row>
@@ -979,14 +979,14 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="34"/>
       <c r="D9" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" s="35"/>
     </row>
@@ -995,14 +995,14 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="34"/>
       <c r="D10" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10" s="35"/>
     </row>
@@ -1011,14 +1011,14 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="34"/>
       <c r="D11" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="35"/>
     </row>
@@ -1027,11 +1027,11 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" s="34"/>
       <c r="D12" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>5</v>

--- a/StudentData.xlsx
+++ b/StudentData.xlsx
@@ -1,59 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979C3537-3678-461E-86CE-DF7264D9CA23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>admissionNo</t>
   </si>
   <si>
-    <t>rollNo</t>
-  </si>
-  <si>
-    <t>fullName</t>
-  </si>
-  <si>
-    <t>sem</t>
-  </si>
-  <si>
-    <t>ia_total</t>
-  </si>
-  <si>
     <t>2022HE0359</t>
-  </si>
-  <si>
-    <t>2022HE0360</t>
-  </si>
-  <si>
-    <t>2022HE0361</t>
-  </si>
-  <si>
-    <t>2022HE0362</t>
-  </si>
-  <si>
-    <t>Aniket Mhatre</t>
-  </si>
-  <si>
-    <t>Swastik Patil</t>
-  </si>
-  <si>
-    <t>Snehal Patil</t>
-  </si>
-  <si>
-    <t>Sakshi Patil</t>
   </si>
   <si>
     <t>Class</t>
@@ -179,7 +146,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -324,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -363,30 +330,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -401,9 +366,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -423,9 +385,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -463,9 +425,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -500,7 +462,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -535,7 +497,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -708,118 +670,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="18.88671875" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>63</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>14</v>
-      </c>
-      <c r="E2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>51</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>16</v>
-      </c>
-      <c r="E3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>62</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>15</v>
-      </c>
-      <c r="E4">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>61</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5">
-        <v>18</v>
-      </c>
-      <c r="E5">
-        <v>80</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F2" sqref="F2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -828,29 +683,29 @@
     <col min="2" max="2" width="8" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.5546875" style="11" customWidth="1"/>
     <col min="4" max="4" width="38.5546875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="23.5546875" style="27" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="27" customWidth="1"/>
+    <col min="5" max="5" width="23.5546875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" style="11" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.6">
       <c r="A1" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -858,19 +713,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>43</v>
+        <v>3</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -878,83 +733,83 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="28"/>
+        <v>4</v>
+      </c>
+      <c r="C3" s="24"/>
       <c r="D3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="30"/>
+        <v>21</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="26"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="28"/>
+        <v>5</v>
+      </c>
+      <c r="C4" s="24"/>
       <c r="D4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="30"/>
+        <v>22</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="26"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="28"/>
+        <v>6</v>
+      </c>
+      <c r="C5" s="24"/>
       <c r="D5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="30"/>
+        <v>23</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="26"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="14">
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="28"/>
+        <v>7</v>
+      </c>
+      <c r="C6" s="24"/>
       <c r="D6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="30"/>
+        <v>24</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="26"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="28" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -962,80 +817,80 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="31"/>
+        <v>9</v>
+      </c>
+      <c r="C8" s="27"/>
       <c r="D8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="32"/>
+        <v>26</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="28"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="31"/>
+        <v>10</v>
+      </c>
+      <c r="C9" s="27"/>
       <c r="D9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="32"/>
+        <v>27</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="28"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="31"/>
+        <v>11</v>
+      </c>
+      <c r="C10" s="27"/>
       <c r="D10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="32"/>
+        <v>28</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="31"/>
+        <v>12</v>
+      </c>
+      <c r="C11" s="27"/>
       <c r="D11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="32"/>
+        <v>29</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="28"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="31"/>
+        <v>30</v>
+      </c>
+      <c r="C12" s="27"/>
       <c r="D12" s="8" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="32"/>
+        <v>1</v>
+      </c>
+      <c r="F12" s="28"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="16"/>
@@ -1208,7 +1063,6 @@
     <row r="34" spans="1:6">
       <c r="A34" s="16"/>
       <c r="B34" s="17"/>
-      <c r="C34" s="22"/>
       <c r="D34" s="19"/>
       <c r="E34" s="20"/>
       <c r="F34" s="21"/>
@@ -1522,7 +1376,7 @@
       <c r="B73" s="17"/>
       <c r="C73" s="18"/>
       <c r="D73" s="19"/>
-      <c r="E73" s="23"/>
+      <c r="E73" s="22"/>
       <c r="F73" s="21"/>
     </row>
     <row r="74" spans="1:6">
@@ -1530,7 +1384,7 @@
       <c r="B74" s="17"/>
       <c r="C74" s="18"/>
       <c r="D74" s="19"/>
-      <c r="E74" s="24"/>
+      <c r="E74" s="22"/>
       <c r="F74" s="21"/>
     </row>
     <row r="75" spans="1:6">
@@ -1538,7 +1392,7 @@
       <c r="B75" s="17"/>
       <c r="C75" s="18"/>
       <c r="D75" s="19"/>
-      <c r="E75" s="24"/>
+      <c r="E75" s="22"/>
       <c r="F75" s="21"/>
     </row>
     <row r="76" spans="1:6">
@@ -1546,7 +1400,7 @@
       <c r="B76" s="17"/>
       <c r="C76" s="18"/>
       <c r="D76" s="19"/>
-      <c r="E76" s="24"/>
+      <c r="E76" s="22"/>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6">
@@ -1554,7 +1408,7 @@
       <c r="B77" s="17"/>
       <c r="C77" s="18"/>
       <c r="D77" s="19"/>
-      <c r="E77" s="24"/>
+      <c r="E77" s="22"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6">
@@ -1562,7 +1416,7 @@
       <c r="B78" s="17"/>
       <c r="C78" s="18"/>
       <c r="D78" s="19"/>
-      <c r="E78" s="24"/>
+      <c r="E78" s="22"/>
       <c r="F78" s="21"/>
     </row>
     <row r="79" spans="1:6">
@@ -1570,7 +1424,7 @@
       <c r="B79" s="17"/>
       <c r="C79" s="18"/>
       <c r="D79" s="19"/>
-      <c r="E79" s="24"/>
+      <c r="E79" s="22"/>
       <c r="F79" s="21"/>
     </row>
     <row r="80" spans="1:6">
@@ -1578,7 +1432,7 @@
       <c r="B80" s="17"/>
       <c r="C80" s="18"/>
       <c r="D80" s="19"/>
-      <c r="E80" s="24"/>
+      <c r="E80" s="22"/>
       <c r="F80" s="21"/>
     </row>
     <row r="81" spans="1:6">
@@ -1586,7 +1440,7 @@
       <c r="B81" s="17"/>
       <c r="C81" s="18"/>
       <c r="D81" s="19"/>
-      <c r="E81" s="24"/>
+      <c r="E81" s="22"/>
       <c r="F81" s="21"/>
     </row>
     <row r="82" spans="1:6">
@@ -1594,7 +1448,7 @@
       <c r="B82" s="17"/>
       <c r="C82" s="18"/>
       <c r="D82" s="19"/>
-      <c r="E82" s="24"/>
+      <c r="E82" s="22"/>
       <c r="F82" s="21"/>
     </row>
     <row r="83" spans="1:6">
@@ -1602,7 +1456,7 @@
       <c r="B83" s="17"/>
       <c r="C83" s="18"/>
       <c r="D83" s="19"/>
-      <c r="E83" s="24"/>
+      <c r="E83" s="22"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6">
@@ -1610,7 +1464,7 @@
       <c r="B84" s="17"/>
       <c r="C84" s="18"/>
       <c r="D84" s="19"/>
-      <c r="E84" s="24"/>
+      <c r="E84" s="22"/>
       <c r="F84" s="21"/>
     </row>
     <row r="85" spans="1:6">
@@ -1618,7 +1472,7 @@
       <c r="B85" s="17"/>
       <c r="C85" s="18"/>
       <c r="D85" s="19"/>
-      <c r="E85" s="24"/>
+      <c r="E85" s="22"/>
       <c r="F85" s="21"/>
     </row>
     <row r="86" spans="1:6">
@@ -1626,7 +1480,7 @@
       <c r="B86" s="17"/>
       <c r="C86" s="18"/>
       <c r="D86" s="19"/>
-      <c r="E86" s="24"/>
+      <c r="E86" s="22"/>
       <c r="F86" s="21"/>
     </row>
     <row r="87" spans="1:6">
@@ -1634,7 +1488,7 @@
       <c r="B87" s="17"/>
       <c r="C87" s="18"/>
       <c r="D87" s="19"/>
-      <c r="E87" s="24"/>
+      <c r="E87" s="22"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6">
@@ -1642,7 +1496,7 @@
       <c r="B88" s="17"/>
       <c r="C88" s="18"/>
       <c r="D88" s="19"/>
-      <c r="E88" s="24"/>
+      <c r="E88" s="22"/>
       <c r="F88" s="21"/>
     </row>
     <row r="89" spans="1:6">
@@ -1650,7 +1504,7 @@
       <c r="B89" s="17"/>
       <c r="C89" s="18"/>
       <c r="D89" s="19"/>
-      <c r="E89" s="24"/>
+      <c r="E89" s="22"/>
       <c r="F89" s="21"/>
     </row>
     <row r="90" spans="1:6">
@@ -1658,7 +1512,7 @@
       <c r="B90" s="17"/>
       <c r="C90" s="18"/>
       <c r="D90" s="19"/>
-      <c r="E90" s="24"/>
+      <c r="E90" s="22"/>
       <c r="F90" s="21"/>
     </row>
     <row r="91" spans="1:6">
@@ -1666,7 +1520,7 @@
       <c r="B91" s="17"/>
       <c r="C91" s="18"/>
       <c r="D91" s="19"/>
-      <c r="E91" s="24"/>
+      <c r="E91" s="22"/>
       <c r="F91" s="21"/>
     </row>
     <row r="92" spans="1:6">
@@ -1674,7 +1528,7 @@
       <c r="B92" s="17"/>
       <c r="C92" s="18"/>
       <c r="D92" s="19"/>
-      <c r="E92" s="24"/>
+      <c r="E92" s="22"/>
       <c r="F92" s="21"/>
     </row>
     <row r="93" spans="1:6">
@@ -1682,7 +1536,7 @@
       <c r="B93" s="17"/>
       <c r="C93" s="18"/>
       <c r="D93" s="19"/>
-      <c r="E93" s="24"/>
+      <c r="E93" s="22"/>
       <c r="F93" s="21"/>
     </row>
     <row r="94" spans="1:6">
@@ -1690,7 +1544,7 @@
       <c r="B94" s="17"/>
       <c r="C94" s="18"/>
       <c r="D94" s="19"/>
-      <c r="E94" s="24"/>
+      <c r="E94" s="22"/>
       <c r="F94" s="21"/>
     </row>
     <row r="95" spans="1:6">
@@ -1698,7 +1552,7 @@
       <c r="B95" s="17"/>
       <c r="C95" s="18"/>
       <c r="D95" s="19"/>
-      <c r="E95" s="24"/>
+      <c r="E95" s="22"/>
       <c r="F95" s="21"/>
     </row>
     <row r="96" spans="1:6">
@@ -1706,7 +1560,7 @@
       <c r="B96" s="17"/>
       <c r="C96" s="18"/>
       <c r="D96" s="19"/>
-      <c r="E96" s="24"/>
+      <c r="E96" s="22"/>
       <c r="F96" s="21"/>
     </row>
     <row r="97" spans="1:6">
@@ -1714,7 +1568,7 @@
       <c r="B97" s="17"/>
       <c r="C97" s="18"/>
       <c r="D97" s="19"/>
-      <c r="E97" s="24"/>
+      <c r="E97" s="22"/>
       <c r="F97" s="21"/>
     </row>
     <row r="98" spans="1:6">
@@ -1722,7 +1576,7 @@
       <c r="B98" s="17"/>
       <c r="C98" s="18"/>
       <c r="D98" s="19"/>
-      <c r="E98" s="24"/>
+      <c r="E98" s="22"/>
       <c r="F98" s="21"/>
     </row>
     <row r="99" spans="1:6">
@@ -1730,7 +1584,7 @@
       <c r="B99" s="17"/>
       <c r="C99" s="18"/>
       <c r="D99" s="19"/>
-      <c r="E99" s="24"/>
+      <c r="E99" s="22"/>
       <c r="F99" s="21"/>
     </row>
     <row r="100" spans="1:6">
@@ -1738,7 +1592,7 @@
       <c r="B100" s="17"/>
       <c r="C100" s="18"/>
       <c r="D100" s="19"/>
-      <c r="E100" s="24"/>
+      <c r="E100" s="22"/>
       <c r="F100" s="21"/>
     </row>
     <row r="101" spans="1:6">
@@ -1746,7 +1600,7 @@
       <c r="B101" s="17"/>
       <c r="C101" s="18"/>
       <c r="D101" s="19"/>
-      <c r="E101" s="24"/>
+      <c r="E101" s="22"/>
       <c r="F101" s="21"/>
     </row>
     <row r="102" spans="1:6">
@@ -1754,7 +1608,7 @@
       <c r="B102" s="17"/>
       <c r="C102" s="18"/>
       <c r="D102" s="19"/>
-      <c r="E102" s="24"/>
+      <c r="E102" s="22"/>
       <c r="F102" s="21"/>
     </row>
     <row r="103" spans="1:6">
@@ -1762,7 +1616,7 @@
       <c r="B103" s="17"/>
       <c r="C103" s="18"/>
       <c r="D103" s="19"/>
-      <c r="E103" s="24"/>
+      <c r="E103" s="22"/>
       <c r="F103" s="21"/>
     </row>
     <row r="104" spans="1:6">
@@ -1770,7 +1624,7 @@
       <c r="B104" s="17"/>
       <c r="C104" s="18"/>
       <c r="D104" s="19"/>
-      <c r="E104" s="24"/>
+      <c r="E104" s="22"/>
       <c r="F104" s="21"/>
     </row>
     <row r="105" spans="1:6">
@@ -1778,7 +1632,7 @@
       <c r="B105" s="17"/>
       <c r="C105" s="18"/>
       <c r="D105" s="19"/>
-      <c r="E105" s="24"/>
+      <c r="E105" s="22"/>
       <c r="F105" s="21"/>
     </row>
     <row r="106" spans="1:6">
@@ -1786,7 +1640,7 @@
       <c r="B106" s="17"/>
       <c r="C106" s="18"/>
       <c r="D106" s="19"/>
-      <c r="E106" s="24"/>
+      <c r="E106" s="22"/>
       <c r="F106" s="21"/>
     </row>
     <row r="107" spans="1:6">
@@ -1794,7 +1648,7 @@
       <c r="B107" s="17"/>
       <c r="C107" s="18"/>
       <c r="D107" s="19"/>
-      <c r="E107" s="24"/>
+      <c r="E107" s="22"/>
       <c r="F107" s="21"/>
     </row>
     <row r="108" spans="1:6">
@@ -1802,7 +1656,7 @@
       <c r="B108" s="17"/>
       <c r="C108" s="18"/>
       <c r="D108" s="19"/>
-      <c r="E108" s="24"/>
+      <c r="E108" s="22"/>
       <c r="F108" s="21"/>
     </row>
     <row r="109" spans="1:6">
@@ -1810,7 +1664,7 @@
       <c r="B109" s="17"/>
       <c r="C109" s="18"/>
       <c r="D109" s="19"/>
-      <c r="E109" s="24"/>
+      <c r="E109" s="22"/>
       <c r="F109" s="21"/>
     </row>
     <row r="110" spans="1:6">
@@ -1818,7 +1672,7 @@
       <c r="B110" s="17"/>
       <c r="C110" s="18"/>
       <c r="D110" s="19"/>
-      <c r="E110" s="24"/>
+      <c r="E110" s="22"/>
       <c r="F110" s="21"/>
     </row>
     <row r="111" spans="1:6">
@@ -1826,7 +1680,7 @@
       <c r="B111" s="17"/>
       <c r="C111" s="18"/>
       <c r="D111" s="19"/>
-      <c r="E111" s="24"/>
+      <c r="E111" s="22"/>
       <c r="F111" s="21"/>
     </row>
     <row r="112" spans="1:6">
@@ -1834,7 +1688,7 @@
       <c r="B112" s="17"/>
       <c r="C112" s="18"/>
       <c r="D112" s="19"/>
-      <c r="E112" s="24"/>
+      <c r="E112" s="22"/>
       <c r="F112" s="21"/>
     </row>
     <row r="113" spans="1:6">
@@ -1842,7 +1696,7 @@
       <c r="B113" s="17"/>
       <c r="C113" s="18"/>
       <c r="D113" s="19"/>
-      <c r="E113" s="24"/>
+      <c r="E113" s="22"/>
       <c r="F113" s="21"/>
     </row>
     <row r="114" spans="1:6">
@@ -1850,7 +1704,7 @@
       <c r="B114" s="17"/>
       <c r="C114" s="18"/>
       <c r="D114" s="19"/>
-      <c r="E114" s="24"/>
+      <c r="E114" s="22"/>
       <c r="F114" s="21"/>
     </row>
     <row r="115" spans="1:6">
@@ -1858,7 +1712,7 @@
       <c r="B115" s="17"/>
       <c r="C115" s="18"/>
       <c r="D115" s="19"/>
-      <c r="E115" s="24"/>
+      <c r="E115" s="22"/>
       <c r="F115" s="21"/>
     </row>
     <row r="116" spans="1:6">
@@ -1866,7 +1720,7 @@
       <c r="B116" s="17"/>
       <c r="C116" s="18"/>
       <c r="D116" s="19"/>
-      <c r="E116" s="24"/>
+      <c r="E116" s="22"/>
       <c r="F116" s="21"/>
     </row>
     <row r="117" spans="1:6">
@@ -1874,7 +1728,7 @@
       <c r="B117" s="17"/>
       <c r="C117" s="18"/>
       <c r="D117" s="19"/>
-      <c r="E117" s="24"/>
+      <c r="E117" s="22"/>
       <c r="F117" s="21"/>
     </row>
     <row r="118" spans="1:6">
@@ -1882,7 +1736,7 @@
       <c r="B118" s="17"/>
       <c r="C118" s="18"/>
       <c r="D118" s="19"/>
-      <c r="E118" s="24"/>
+      <c r="E118" s="22"/>
       <c r="F118" s="21"/>
     </row>
     <row r="119" spans="1:6">
@@ -1890,7 +1744,7 @@
       <c r="B119" s="17"/>
       <c r="C119" s="18"/>
       <c r="D119" s="19"/>
-      <c r="E119" s="24"/>
+      <c r="E119" s="22"/>
       <c r="F119" s="21"/>
     </row>
     <row r="120" spans="1:6">
@@ -1898,7 +1752,7 @@
       <c r="B120" s="17"/>
       <c r="C120" s="18"/>
       <c r="D120" s="19"/>
-      <c r="E120" s="24"/>
+      <c r="E120" s="22"/>
       <c r="F120" s="21"/>
     </row>
     <row r="121" spans="1:6">
@@ -1906,7 +1760,7 @@
       <c r="B121" s="17"/>
       <c r="C121" s="18"/>
       <c r="D121" s="19"/>
-      <c r="E121" s="24"/>
+      <c r="E121" s="22"/>
       <c r="F121" s="21"/>
     </row>
     <row r="122" spans="1:6">
@@ -1914,7 +1768,7 @@
       <c r="B122" s="17"/>
       <c r="C122" s="18"/>
       <c r="D122" s="19"/>
-      <c r="E122" s="24"/>
+      <c r="E122" s="22"/>
       <c r="F122" s="21"/>
     </row>
     <row r="123" spans="1:6">
@@ -1922,7 +1776,7 @@
       <c r="B123" s="17"/>
       <c r="C123" s="18"/>
       <c r="D123" s="19"/>
-      <c r="E123" s="24"/>
+      <c r="E123" s="22"/>
       <c r="F123" s="21"/>
     </row>
     <row r="124" spans="1:6">
@@ -1930,7 +1784,7 @@
       <c r="B124" s="17"/>
       <c r="C124" s="18"/>
       <c r="D124" s="19"/>
-      <c r="E124" s="24"/>
+      <c r="E124" s="22"/>
       <c r="F124" s="21"/>
     </row>
     <row r="125" spans="1:6">
@@ -1938,7 +1792,7 @@
       <c r="B125" s="17"/>
       <c r="C125" s="18"/>
       <c r="D125" s="19"/>
-      <c r="E125" s="24"/>
+      <c r="E125" s="22"/>
       <c r="F125" s="21"/>
     </row>
     <row r="126" spans="1:6">
@@ -1946,7 +1800,7 @@
       <c r="B126" s="17"/>
       <c r="C126" s="18"/>
       <c r="D126" s="19"/>
-      <c r="E126" s="24"/>
+      <c r="E126" s="22"/>
       <c r="F126" s="21"/>
     </row>
     <row r="127" spans="1:6">
@@ -1954,7 +1808,7 @@
       <c r="B127" s="17"/>
       <c r="C127" s="18"/>
       <c r="D127" s="19"/>
-      <c r="E127" s="24"/>
+      <c r="E127" s="22"/>
       <c r="F127" s="21"/>
     </row>
     <row r="128" spans="1:6">
@@ -1962,7 +1816,7 @@
       <c r="B128" s="17"/>
       <c r="C128" s="18"/>
       <c r="D128" s="19"/>
-      <c r="E128" s="24"/>
+      <c r="E128" s="22"/>
       <c r="F128" s="21"/>
     </row>
     <row r="129" spans="1:6" ht="26.4" customHeight="1">
@@ -1970,7 +1824,7 @@
       <c r="B129" s="17"/>
       <c r="C129" s="18"/>
       <c r="D129" s="19"/>
-      <c r="E129" s="24"/>
+      <c r="E129" s="22"/>
       <c r="F129" s="21"/>
     </row>
     <row r="130" spans="1:6">
@@ -1978,7 +1832,7 @@
       <c r="B130" s="17"/>
       <c r="C130" s="18"/>
       <c r="D130" s="19"/>
-      <c r="E130" s="24"/>
+      <c r="E130" s="22"/>
       <c r="F130" s="21"/>
     </row>
     <row r="131" spans="1:6">
@@ -1986,7 +1840,7 @@
       <c r="B131" s="17"/>
       <c r="C131" s="18"/>
       <c r="D131" s="19"/>
-      <c r="E131" s="24"/>
+      <c r="E131" s="22"/>
       <c r="F131" s="21"/>
     </row>
     <row r="132" spans="1:6">
@@ -1994,7 +1848,7 @@
       <c r="B132" s="17"/>
       <c r="C132" s="18"/>
       <c r="D132" s="19"/>
-      <c r="E132" s="24"/>
+      <c r="E132" s="22"/>
       <c r="F132" s="21"/>
     </row>
     <row r="133" spans="1:6">
@@ -2002,7 +1856,7 @@
       <c r="B133" s="17"/>
       <c r="C133" s="18"/>
       <c r="D133" s="19"/>
-      <c r="E133" s="24"/>
+      <c r="E133" s="22"/>
       <c r="F133" s="21"/>
     </row>
     <row r="134" spans="1:6">
@@ -2010,7 +1864,7 @@
       <c r="B134" s="17"/>
       <c r="C134" s="18"/>
       <c r="D134" s="19"/>
-      <c r="E134" s="24"/>
+      <c r="E134" s="22"/>
       <c r="F134" s="21"/>
     </row>
     <row r="135" spans="1:6">
@@ -2018,7 +1872,7 @@
       <c r="B135" s="17"/>
       <c r="C135" s="18"/>
       <c r="D135" s="19"/>
-      <c r="E135" s="24"/>
+      <c r="E135" s="22"/>
       <c r="F135" s="21"/>
     </row>
     <row r="136" spans="1:6">
@@ -2026,7 +1880,7 @@
       <c r="B136" s="17"/>
       <c r="C136" s="18"/>
       <c r="D136" s="19"/>
-      <c r="E136" s="24"/>
+      <c r="E136" s="22"/>
       <c r="F136" s="21"/>
     </row>
     <row r="137" spans="1:6">
@@ -2034,7 +1888,7 @@
       <c r="B137" s="17"/>
       <c r="C137" s="18"/>
       <c r="D137" s="19"/>
-      <c r="E137" s="24"/>
+      <c r="E137" s="22"/>
       <c r="F137" s="21"/>
     </row>
     <row r="138" spans="1:6">
@@ -2042,7 +1896,7 @@
       <c r="B138" s="17"/>
       <c r="C138" s="18"/>
       <c r="D138" s="19"/>
-      <c r="E138" s="24"/>
+      <c r="E138" s="22"/>
       <c r="F138" s="21"/>
     </row>
     <row r="139" spans="1:6">
@@ -2050,7 +1904,7 @@
       <c r="B139" s="17"/>
       <c r="C139" s="18"/>
       <c r="D139" s="19"/>
-      <c r="E139" s="24"/>
+      <c r="E139" s="22"/>
       <c r="F139" s="21"/>
     </row>
     <row r="140" spans="1:6">
@@ -2058,7 +1912,7 @@
       <c r="B140" s="17"/>
       <c r="C140" s="18"/>
       <c r="D140" s="19"/>
-      <c r="E140" s="24"/>
+      <c r="E140" s="22"/>
       <c r="F140" s="21"/>
     </row>
     <row r="141" spans="1:6">
@@ -2066,7 +1920,7 @@
       <c r="B141" s="17"/>
       <c r="C141" s="18"/>
       <c r="D141" s="19"/>
-      <c r="E141" s="24"/>
+      <c r="E141" s="22"/>
       <c r="F141" s="21"/>
     </row>
     <row r="142" spans="1:6">
@@ -2074,7 +1928,7 @@
       <c r="B142" s="17"/>
       <c r="C142" s="18"/>
       <c r="D142" s="19"/>
-      <c r="E142" s="24"/>
+      <c r="E142" s="22"/>
       <c r="F142" s="21"/>
     </row>
     <row r="143" spans="1:6">
@@ -2082,7 +1936,7 @@
       <c r="B143" s="17"/>
       <c r="C143" s="18"/>
       <c r="D143" s="19"/>
-      <c r="E143" s="24"/>
+      <c r="E143" s="22"/>
       <c r="F143" s="21"/>
     </row>
     <row r="144" spans="1:6">
@@ -2090,7 +1944,7 @@
       <c r="B144" s="17"/>
       <c r="C144" s="18"/>
       <c r="D144" s="19"/>
-      <c r="E144" s="24"/>
+      <c r="E144" s="22"/>
       <c r="F144" s="21"/>
     </row>
     <row r="145" spans="1:6">
@@ -2098,7 +1952,7 @@
       <c r="B145" s="17"/>
       <c r="C145" s="18"/>
       <c r="D145" s="19"/>
-      <c r="E145" s="24"/>
+      <c r="E145" s="22"/>
       <c r="F145" s="21"/>
     </row>
     <row r="146" spans="1:6">
@@ -2106,7 +1960,7 @@
       <c r="B146" s="17"/>
       <c r="C146" s="18"/>
       <c r="D146" s="19"/>
-      <c r="E146" s="24"/>
+      <c r="E146" s="22"/>
       <c r="F146" s="21"/>
     </row>
     <row r="147" spans="1:6">
@@ -2114,7 +1968,7 @@
       <c r="B147" s="17"/>
       <c r="C147" s="18"/>
       <c r="D147" s="19"/>
-      <c r="E147" s="24"/>
+      <c r="E147" s="22"/>
       <c r="F147" s="21"/>
     </row>
     <row r="148" spans="1:6">
@@ -2122,7 +1976,7 @@
       <c r="B148" s="17"/>
       <c r="C148" s="18"/>
       <c r="D148" s="19"/>
-      <c r="E148" s="24"/>
+      <c r="E148" s="22"/>
       <c r="F148" s="21"/>
     </row>
     <row r="149" spans="1:6">
@@ -2130,7 +1984,7 @@
       <c r="B149" s="17"/>
       <c r="C149" s="18"/>
       <c r="D149" s="19"/>
-      <c r="E149" s="24"/>
+      <c r="E149" s="22"/>
       <c r="F149" s="21"/>
     </row>
     <row r="150" spans="1:6">
@@ -2138,7 +1992,7 @@
       <c r="B150" s="17"/>
       <c r="C150" s="18"/>
       <c r="D150" s="19"/>
-      <c r="E150" s="24"/>
+      <c r="E150" s="22"/>
       <c r="F150" s="21"/>
     </row>
     <row r="151" spans="1:6">
@@ -2146,7 +2000,7 @@
       <c r="B151" s="17"/>
       <c r="C151" s="18"/>
       <c r="D151" s="19"/>
-      <c r="E151" s="24"/>
+      <c r="E151" s="22"/>
       <c r="F151" s="21"/>
     </row>
     <row r="152" spans="1:6">
@@ -2154,7 +2008,7 @@
       <c r="B152" s="17"/>
       <c r="C152" s="18"/>
       <c r="D152" s="19"/>
-      <c r="E152" s="24"/>
+      <c r="E152" s="22"/>
       <c r="F152" s="21"/>
     </row>
     <row r="153" spans="1:6">
@@ -2162,7 +2016,7 @@
       <c r="B153" s="17"/>
       <c r="C153" s="18"/>
       <c r="D153" s="19"/>
-      <c r="E153" s="24"/>
+      <c r="E153" s="22"/>
       <c r="F153" s="21"/>
     </row>
     <row r="154" spans="1:6">
@@ -2170,7 +2024,7 @@
       <c r="B154" s="17"/>
       <c r="C154" s="18"/>
       <c r="D154" s="19"/>
-      <c r="E154" s="24"/>
+      <c r="E154" s="22"/>
       <c r="F154" s="21"/>
     </row>
     <row r="155" spans="1:6">
@@ -2178,7 +2032,7 @@
       <c r="B155" s="17"/>
       <c r="C155" s="18"/>
       <c r="D155" s="19"/>
-      <c r="E155" s="24"/>
+      <c r="E155" s="22"/>
       <c r="F155" s="21"/>
     </row>
     <row r="156" spans="1:6">
@@ -2186,7 +2040,7 @@
       <c r="B156" s="17"/>
       <c r="C156" s="18"/>
       <c r="D156" s="19"/>
-      <c r="E156" s="24"/>
+      <c r="E156" s="22"/>
       <c r="F156" s="21"/>
     </row>
     <row r="157" spans="1:6">
@@ -2194,7 +2048,7 @@
       <c r="B157" s="17"/>
       <c r="C157" s="18"/>
       <c r="D157" s="19"/>
-      <c r="E157" s="24"/>
+      <c r="E157" s="22"/>
       <c r="F157" s="21"/>
     </row>
     <row r="158" spans="1:6">
@@ -2202,7 +2056,7 @@
       <c r="B158" s="17"/>
       <c r="C158" s="18"/>
       <c r="D158" s="19"/>
-      <c r="E158" s="24"/>
+      <c r="E158" s="22"/>
       <c r="F158" s="21"/>
     </row>
     <row r="159" spans="1:6">
@@ -2210,7 +2064,7 @@
       <c r="B159" s="17"/>
       <c r="C159" s="18"/>
       <c r="D159" s="19"/>
-      <c r="E159" s="24"/>
+      <c r="E159" s="22"/>
       <c r="F159" s="21"/>
     </row>
     <row r="160" spans="1:6">
@@ -2218,7 +2072,7 @@
       <c r="B160" s="17"/>
       <c r="C160" s="18"/>
       <c r="D160" s="19"/>
-      <c r="E160" s="24"/>
+      <c r="E160" s="22"/>
       <c r="F160" s="21"/>
     </row>
     <row r="161" spans="1:6">
@@ -2226,7 +2080,7 @@
       <c r="B161" s="17"/>
       <c r="C161" s="18"/>
       <c r="D161" s="19"/>
-      <c r="E161" s="24"/>
+      <c r="E161" s="22"/>
       <c r="F161" s="21"/>
     </row>
     <row r="162" spans="1:6">
@@ -2234,7 +2088,7 @@
       <c r="B162" s="17"/>
       <c r="C162" s="18"/>
       <c r="D162" s="19"/>
-      <c r="E162" s="24"/>
+      <c r="E162" s="22"/>
       <c r="F162" s="21"/>
     </row>
     <row r="163" spans="1:6">
@@ -2242,7 +2096,7 @@
       <c r="B163" s="17"/>
       <c r="C163" s="18"/>
       <c r="D163" s="19"/>
-      <c r="E163" s="24"/>
+      <c r="E163" s="22"/>
       <c r="F163" s="21"/>
     </row>
     <row r="164" spans="1:6">
@@ -2250,7 +2104,7 @@
       <c r="B164" s="17"/>
       <c r="C164" s="18"/>
       <c r="D164" s="19"/>
-      <c r="E164" s="24"/>
+      <c r="E164" s="22"/>
       <c r="F164" s="21"/>
     </row>
     <row r="165" spans="1:6">
@@ -2258,7 +2112,7 @@
       <c r="B165" s="17"/>
       <c r="C165" s="18"/>
       <c r="D165" s="19"/>
-      <c r="E165" s="24"/>
+      <c r="E165" s="22"/>
       <c r="F165" s="21"/>
     </row>
     <row r="166" spans="1:6">
@@ -2266,7 +2120,7 @@
       <c r="B166" s="17"/>
       <c r="C166" s="18"/>
       <c r="D166" s="19"/>
-      <c r="E166" s="24"/>
+      <c r="E166" s="22"/>
       <c r="F166" s="21"/>
     </row>
     <row r="167" spans="1:6">
@@ -2274,7 +2128,7 @@
       <c r="B167" s="17"/>
       <c r="C167" s="18"/>
       <c r="D167" s="19"/>
-      <c r="E167" s="24"/>
+      <c r="E167" s="22"/>
       <c r="F167" s="21"/>
     </row>
     <row r="168" spans="1:6">
@@ -2282,7 +2136,7 @@
       <c r="B168" s="17"/>
       <c r="C168" s="18"/>
       <c r="D168" s="19"/>
-      <c r="E168" s="24"/>
+      <c r="E168" s="22"/>
       <c r="F168" s="21"/>
     </row>
     <row r="169" spans="1:6">
@@ -2290,7 +2144,7 @@
       <c r="B169" s="17"/>
       <c r="C169" s="18"/>
       <c r="D169" s="19"/>
-      <c r="E169" s="24"/>
+      <c r="E169" s="22"/>
       <c r="F169" s="21"/>
     </row>
     <row r="170" spans="1:6">
@@ -2298,7 +2152,7 @@
       <c r="B170" s="17"/>
       <c r="C170" s="18"/>
       <c r="D170" s="19"/>
-      <c r="E170" s="24"/>
+      <c r="E170" s="22"/>
       <c r="F170" s="21"/>
     </row>
     <row r="171" spans="1:6">
@@ -2306,7 +2160,7 @@
       <c r="B171" s="17"/>
       <c r="C171" s="18"/>
       <c r="D171" s="19"/>
-      <c r="E171" s="24"/>
+      <c r="E171" s="22"/>
       <c r="F171" s="21"/>
     </row>
     <row r="172" spans="1:6">
@@ -2314,7 +2168,7 @@
       <c r="B172" s="17"/>
       <c r="C172" s="18"/>
       <c r="D172" s="19"/>
-      <c r="E172" s="24"/>
+      <c r="E172" s="22"/>
       <c r="F172" s="21"/>
     </row>
     <row r="173" spans="1:6">
@@ -2322,7 +2176,7 @@
       <c r="B173" s="17"/>
       <c r="C173" s="18"/>
       <c r="D173" s="19"/>
-      <c r="E173" s="24"/>
+      <c r="E173" s="22"/>
       <c r="F173" s="21"/>
     </row>
     <row r="174" spans="1:6">
@@ -2330,7 +2184,7 @@
       <c r="B174" s="17"/>
       <c r="C174" s="18"/>
       <c r="D174" s="19"/>
-      <c r="E174" s="24"/>
+      <c r="E174" s="22"/>
       <c r="F174" s="21"/>
     </row>
     <row r="175" spans="1:6">
@@ -2338,7 +2192,7 @@
       <c r="B175" s="17"/>
       <c r="C175" s="18"/>
       <c r="D175" s="19"/>
-      <c r="E175" s="24"/>
+      <c r="E175" s="22"/>
       <c r="F175" s="21"/>
     </row>
     <row r="176" spans="1:6">
@@ -2346,7 +2200,7 @@
       <c r="B176" s="17"/>
       <c r="C176" s="18"/>
       <c r="D176" s="19"/>
-      <c r="E176" s="24"/>
+      <c r="E176" s="22"/>
       <c r="F176" s="21"/>
     </row>
     <row r="177" spans="1:6">
@@ -2354,7 +2208,7 @@
       <c r="B177" s="17"/>
       <c r="C177" s="18"/>
       <c r="D177" s="19"/>
-      <c r="E177" s="24"/>
+      <c r="E177" s="22"/>
       <c r="F177" s="21"/>
     </row>
     <row r="178" spans="1:6">
@@ -2362,7 +2216,7 @@
       <c r="B178" s="17"/>
       <c r="C178" s="18"/>
       <c r="D178" s="19"/>
-      <c r="E178" s="24"/>
+      <c r="E178" s="22"/>
       <c r="F178" s="21"/>
     </row>
     <row r="179" spans="1:6">
@@ -2370,7 +2224,7 @@
       <c r="B179" s="17"/>
       <c r="C179" s="18"/>
       <c r="D179" s="19"/>
-      <c r="E179" s="24"/>
+      <c r="E179" s="22"/>
       <c r="F179" s="21"/>
     </row>
     <row r="180" spans="1:6">
@@ -2378,7 +2232,7 @@
       <c r="B180" s="17"/>
       <c r="C180" s="18"/>
       <c r="D180" s="19"/>
-      <c r="E180" s="24"/>
+      <c r="E180" s="22"/>
       <c r="F180" s="21"/>
     </row>
     <row r="181" spans="1:6">
@@ -2386,7 +2240,7 @@
       <c r="B181" s="17"/>
       <c r="C181" s="18"/>
       <c r="D181" s="19"/>
-      <c r="E181" s="24"/>
+      <c r="E181" s="22"/>
       <c r="F181" s="21"/>
     </row>
     <row r="182" spans="1:6">
@@ -2394,7 +2248,7 @@
       <c r="B182" s="17"/>
       <c r="C182" s="18"/>
       <c r="D182" s="19"/>
-      <c r="E182" s="24"/>
+      <c r="E182" s="22"/>
       <c r="F182" s="21"/>
     </row>
     <row r="183" spans="1:6">
@@ -2402,7 +2256,7 @@
       <c r="B183" s="17"/>
       <c r="C183" s="18"/>
       <c r="D183" s="19"/>
-      <c r="E183" s="24"/>
+      <c r="E183" s="22"/>
       <c r="F183" s="21"/>
     </row>
     <row r="184" spans="1:6">
@@ -2410,7 +2264,7 @@
       <c r="B184" s="17"/>
       <c r="C184" s="18"/>
       <c r="D184" s="19"/>
-      <c r="E184" s="24"/>
+      <c r="E184" s="22"/>
       <c r="F184" s="21"/>
     </row>
     <row r="185" spans="1:6">
@@ -2418,7 +2272,7 @@
       <c r="B185" s="17"/>
       <c r="C185" s="18"/>
       <c r="D185" s="19"/>
-      <c r="E185" s="24"/>
+      <c r="E185" s="22"/>
       <c r="F185" s="21"/>
     </row>
     <row r="186" spans="1:6">
@@ -2426,7 +2280,7 @@
       <c r="B186" s="17"/>
       <c r="C186" s="18"/>
       <c r="D186" s="19"/>
-      <c r="E186" s="24"/>
+      <c r="E186" s="22"/>
       <c r="F186" s="21"/>
     </row>
     <row r="187" spans="1:6">
@@ -2434,7 +2288,7 @@
       <c r="B187" s="17"/>
       <c r="C187" s="18"/>
       <c r="D187" s="19"/>
-      <c r="E187" s="24"/>
+      <c r="E187" s="22"/>
       <c r="F187" s="21"/>
     </row>
     <row r="188" spans="1:6">
@@ -2442,7 +2296,7 @@
       <c r="B188" s="17"/>
       <c r="C188" s="18"/>
       <c r="D188" s="19"/>
-      <c r="E188" s="24"/>
+      <c r="E188" s="22"/>
       <c r="F188" s="21"/>
     </row>
     <row r="189" spans="1:6">
@@ -2450,7 +2304,7 @@
       <c r="B189" s="17"/>
       <c r="C189" s="18"/>
       <c r="D189" s="19"/>
-      <c r="E189" s="24"/>
+      <c r="E189" s="22"/>
       <c r="F189" s="21"/>
     </row>
     <row r="190" spans="1:6">
@@ -2458,7 +2312,7 @@
       <c r="B190" s="17"/>
       <c r="C190" s="18"/>
       <c r="D190" s="19"/>
-      <c r="E190" s="24"/>
+      <c r="E190" s="22"/>
       <c r="F190" s="21"/>
     </row>
     <row r="191" spans="1:6">
@@ -2466,2620 +2320,2435 @@
       <c r="B191" s="17"/>
       <c r="C191" s="18"/>
       <c r="D191" s="19"/>
-      <c r="E191" s="24"/>
+      <c r="E191" s="22"/>
       <c r="F191" s="21"/>
     </row>
     <row r="192" spans="1:6">
-      <c r="A192" s="22"/>
-      <c r="B192" s="22"/>
-      <c r="C192" s="22"/>
-      <c r="D192" s="22"/>
-      <c r="E192" s="24"/>
-      <c r="F192" s="25"/>
-    </row>
-    <row r="193" spans="1:6">
-      <c r="A193" s="22"/>
-      <c r="B193" s="22"/>
-      <c r="C193" s="22"/>
-      <c r="D193" s="22"/>
-      <c r="E193" s="24"/>
-      <c r="F193" s="25"/>
-    </row>
-    <row r="194" spans="1:6">
-      <c r="A194" s="22"/>
-      <c r="B194" s="22"/>
-      <c r="C194" s="22"/>
-      <c r="D194" s="22"/>
-      <c r="E194" s="24"/>
-      <c r="F194" s="25"/>
-    </row>
-    <row r="195" spans="1:6">
-      <c r="A195" s="22"/>
-      <c r="B195" s="22"/>
-      <c r="C195" s="22"/>
-      <c r="D195" s="22"/>
-      <c r="E195" s="24"/>
-      <c r="F195" s="25"/>
-    </row>
-    <row r="196" spans="1:6">
-      <c r="A196" s="22"/>
-      <c r="B196" s="22"/>
-      <c r="C196" s="22"/>
-      <c r="D196" s="22"/>
-      <c r="E196" s="24"/>
-      <c r="F196" s="25"/>
-    </row>
-    <row r="197" spans="1:6">
-      <c r="A197" s="22"/>
-      <c r="B197" s="22"/>
-      <c r="C197" s="22"/>
-      <c r="D197" s="22"/>
-      <c r="E197" s="24"/>
-      <c r="F197" s="25"/>
-    </row>
-    <row r="198" spans="1:6">
-      <c r="A198" s="22"/>
-      <c r="B198" s="22"/>
-      <c r="C198" s="22"/>
-      <c r="D198" s="22"/>
-      <c r="E198" s="24"/>
-      <c r="F198" s="25"/>
-    </row>
-    <row r="199" spans="1:6">
-      <c r="A199" s="22"/>
-      <c r="B199" s="22"/>
-      <c r="C199" s="22"/>
-      <c r="D199" s="22"/>
-      <c r="E199" s="24"/>
-      <c r="F199" s="25"/>
-    </row>
-    <row r="200" spans="1:6">
-      <c r="A200" s="22"/>
-      <c r="B200" s="22"/>
-      <c r="C200" s="22"/>
-      <c r="D200" s="22"/>
-      <c r="E200" s="24"/>
-      <c r="F200" s="25"/>
-    </row>
-    <row r="201" spans="1:6">
-      <c r="A201" s="22"/>
-      <c r="B201" s="22"/>
-      <c r="C201" s="22"/>
-      <c r="D201" s="22"/>
-      <c r="E201" s="24"/>
-      <c r="F201" s="25"/>
-    </row>
-    <row r="202" spans="1:6">
-      <c r="A202" s="22"/>
-      <c r="B202" s="22"/>
-      <c r="C202" s="22"/>
-      <c r="D202" s="22"/>
-      <c r="E202" s="24"/>
-      <c r="F202" s="25"/>
-    </row>
-    <row r="203" spans="1:6">
-      <c r="A203" s="22"/>
-      <c r="B203" s="22"/>
-      <c r="C203" s="22"/>
-      <c r="D203" s="22"/>
-      <c r="E203" s="24"/>
-      <c r="F203" s="25"/>
-    </row>
-    <row r="204" spans="1:6">
-      <c r="A204" s="22"/>
-      <c r="B204" s="22"/>
-      <c r="C204" s="22"/>
-      <c r="D204" s="22"/>
-      <c r="E204" s="24"/>
-      <c r="F204" s="25"/>
-    </row>
-    <row r="205" spans="1:6">
-      <c r="A205" s="22"/>
-      <c r="B205" s="22"/>
-      <c r="C205" s="22"/>
-      <c r="D205" s="22"/>
-      <c r="E205" s="24"/>
-      <c r="F205" s="25"/>
-    </row>
-    <row r="206" spans="1:6">
-      <c r="A206" s="22"/>
-      <c r="B206" s="22"/>
-      <c r="C206" s="22"/>
-      <c r="D206" s="22"/>
-      <c r="E206" s="24"/>
-      <c r="F206" s="25"/>
-    </row>
-    <row r="207" spans="1:6">
-      <c r="A207" s="22"/>
-      <c r="B207" s="22"/>
-      <c r="C207" s="22"/>
-      <c r="D207" s="22"/>
-      <c r="E207" s="24"/>
-      <c r="F207" s="25"/>
-    </row>
-    <row r="208" spans="1:6">
-      <c r="A208" s="22"/>
-      <c r="B208" s="22"/>
-      <c r="C208" s="22"/>
-      <c r="D208" s="22"/>
-      <c r="E208" s="24"/>
-      <c r="F208" s="25"/>
-    </row>
-    <row r="209" spans="1:6">
-      <c r="A209" s="22"/>
-      <c r="B209" s="22"/>
-      <c r="C209" s="22"/>
-      <c r="D209" s="22"/>
-      <c r="E209" s="24"/>
-      <c r="F209" s="25"/>
-    </row>
-    <row r="210" spans="1:6">
-      <c r="A210" s="22"/>
-      <c r="B210" s="22"/>
-      <c r="C210" s="22"/>
-      <c r="D210" s="22"/>
-      <c r="E210" s="24"/>
-      <c r="F210" s="25"/>
-    </row>
-    <row r="211" spans="1:6">
-      <c r="A211" s="22"/>
-      <c r="B211" s="22"/>
-      <c r="C211" s="22"/>
-      <c r="D211" s="22"/>
-      <c r="E211" s="24"/>
-      <c r="F211" s="25"/>
-    </row>
-    <row r="212" spans="1:6">
-      <c r="A212" s="22"/>
-      <c r="B212" s="22"/>
-      <c r="C212" s="22"/>
-      <c r="D212" s="22"/>
-      <c r="E212" s="24"/>
-      <c r="F212" s="25"/>
-    </row>
-    <row r="213" spans="1:6">
-      <c r="A213" s="22"/>
-      <c r="B213" s="22"/>
-      <c r="C213" s="22"/>
-      <c r="D213" s="22"/>
-      <c r="E213" s="24"/>
-      <c r="F213" s="25"/>
-    </row>
-    <row r="214" spans="1:6">
-      <c r="A214" s="22"/>
-      <c r="B214" s="22"/>
-      <c r="C214" s="22"/>
-      <c r="D214" s="22"/>
-      <c r="E214" s="24"/>
-      <c r="F214" s="25"/>
-    </row>
-    <row r="215" spans="1:6">
-      <c r="A215" s="22"/>
-      <c r="B215" s="22"/>
-      <c r="C215" s="22"/>
-      <c r="D215" s="22"/>
-      <c r="E215" s="24"/>
-      <c r="F215" s="25"/>
-    </row>
-    <row r="216" spans="1:6">
-      <c r="A216" s="22"/>
-      <c r="B216" s="22"/>
-      <c r="C216" s="22"/>
-      <c r="D216" s="22"/>
-      <c r="E216" s="24"/>
-      <c r="F216" s="25"/>
-    </row>
-    <row r="217" spans="1:6">
-      <c r="A217" s="22"/>
-      <c r="B217" s="22"/>
-      <c r="C217" s="22"/>
-      <c r="D217" s="22"/>
-      <c r="E217" s="24"/>
-      <c r="F217" s="25"/>
-    </row>
-    <row r="218" spans="1:6">
-      <c r="A218" s="22"/>
-      <c r="B218" s="22"/>
-      <c r="C218" s="22"/>
-      <c r="D218" s="22"/>
-      <c r="E218" s="24"/>
-      <c r="F218" s="25"/>
-    </row>
-    <row r="219" spans="1:6">
-      <c r="A219" s="22"/>
-      <c r="B219" s="22"/>
-      <c r="C219" s="22"/>
-      <c r="D219" s="22"/>
-      <c r="E219" s="24"/>
-      <c r="F219" s="25"/>
-    </row>
-    <row r="220" spans="1:6">
-      <c r="A220" s="22"/>
-      <c r="B220" s="22"/>
-      <c r="C220" s="22"/>
-      <c r="D220" s="22"/>
-      <c r="E220" s="24"/>
-      <c r="F220" s="25"/>
-    </row>
-    <row r="221" spans="1:6">
-      <c r="A221" s="22"/>
-      <c r="B221" s="22"/>
-      <c r="C221" s="22"/>
-      <c r="D221" s="22"/>
-      <c r="E221" s="24"/>
-      <c r="F221" s="25"/>
-    </row>
-    <row r="222" spans="1:6">
-      <c r="A222" s="22"/>
-      <c r="B222" s="22"/>
-      <c r="C222" s="22"/>
-      <c r="D222" s="22"/>
-      <c r="E222" s="24"/>
-      <c r="F222" s="25"/>
-    </row>
-    <row r="223" spans="1:6">
-      <c r="A223" s="22"/>
-      <c r="B223" s="22"/>
-      <c r="C223" s="22"/>
-      <c r="D223" s="22"/>
-      <c r="E223" s="24"/>
-      <c r="F223" s="25"/>
-    </row>
-    <row r="224" spans="1:6">
-      <c r="A224" s="22"/>
-      <c r="B224" s="22"/>
-      <c r="C224" s="22"/>
-      <c r="D224" s="22"/>
-      <c r="E224" s="24"/>
-      <c r="F224" s="25"/>
-    </row>
-    <row r="225" spans="1:6">
-      <c r="A225" s="22"/>
-      <c r="B225" s="22"/>
-      <c r="C225" s="22"/>
-      <c r="D225" s="22"/>
-      <c r="E225" s="24"/>
-      <c r="F225" s="25"/>
-    </row>
-    <row r="226" spans="1:6">
-      <c r="A226" s="22"/>
-      <c r="B226" s="22"/>
-      <c r="C226" s="22"/>
-      <c r="D226" s="22"/>
-      <c r="E226" s="24"/>
-      <c r="F226" s="25"/>
-    </row>
-    <row r="227" spans="1:6">
-      <c r="A227" s="22"/>
-      <c r="B227" s="22"/>
-      <c r="C227" s="22"/>
-      <c r="D227" s="22"/>
-      <c r="E227" s="24"/>
-      <c r="F227" s="25"/>
-    </row>
-    <row r="228" spans="1:6">
-      <c r="A228" s="22"/>
-      <c r="B228" s="22"/>
-      <c r="C228" s="22"/>
-      <c r="D228" s="22"/>
-      <c r="E228" s="24"/>
-      <c r="F228" s="25"/>
-    </row>
-    <row r="229" spans="1:6">
-      <c r="E229" s="26"/>
-    </row>
-    <row r="230" spans="1:6">
-      <c r="E230" s="26"/>
-    </row>
-    <row r="231" spans="1:6">
-      <c r="E231" s="26"/>
-    </row>
-    <row r="232" spans="1:6">
-      <c r="E232" s="26"/>
-    </row>
-    <row r="233" spans="1:6">
-      <c r="E233" s="26"/>
-    </row>
-    <row r="234" spans="1:6">
-      <c r="E234" s="26"/>
-    </row>
-    <row r="235" spans="1:6">
-      <c r="E235" s="26"/>
-    </row>
-    <row r="236" spans="1:6">
-      <c r="E236" s="26"/>
-    </row>
-    <row r="237" spans="1:6">
-      <c r="E237" s="26"/>
-    </row>
-    <row r="238" spans="1:6">
-      <c r="E238" s="26"/>
-    </row>
-    <row r="239" spans="1:6">
-      <c r="E239" s="26"/>
-    </row>
-    <row r="240" spans="1:6">
-      <c r="E240" s="26"/>
+      <c r="E192" s="22"/>
+    </row>
+    <row r="193" spans="5:5">
+      <c r="E193" s="22"/>
+    </row>
+    <row r="194" spans="5:5">
+      <c r="E194" s="22"/>
+    </row>
+    <row r="195" spans="5:5">
+      <c r="E195" s="22"/>
+    </row>
+    <row r="196" spans="5:5">
+      <c r="E196" s="22"/>
+    </row>
+    <row r="197" spans="5:5">
+      <c r="E197" s="22"/>
+    </row>
+    <row r="198" spans="5:5">
+      <c r="E198" s="22"/>
+    </row>
+    <row r="199" spans="5:5">
+      <c r="E199" s="22"/>
+    </row>
+    <row r="200" spans="5:5">
+      <c r="E200" s="22"/>
+    </row>
+    <row r="201" spans="5:5">
+      <c r="E201" s="22"/>
+    </row>
+    <row r="202" spans="5:5">
+      <c r="E202" s="22"/>
+    </row>
+    <row r="203" spans="5:5">
+      <c r="E203" s="22"/>
+    </row>
+    <row r="204" spans="5:5">
+      <c r="E204" s="22"/>
+    </row>
+    <row r="205" spans="5:5">
+      <c r="E205" s="22"/>
+    </row>
+    <row r="206" spans="5:5">
+      <c r="E206" s="22"/>
+    </row>
+    <row r="207" spans="5:5">
+      <c r="E207" s="22"/>
+    </row>
+    <row r="208" spans="5:5">
+      <c r="E208" s="22"/>
+    </row>
+    <row r="209" spans="5:5">
+      <c r="E209" s="22"/>
+    </row>
+    <row r="210" spans="5:5">
+      <c r="E210" s="22"/>
+    </row>
+    <row r="211" spans="5:5">
+      <c r="E211" s="22"/>
+    </row>
+    <row r="212" spans="5:5">
+      <c r="E212" s="22"/>
+    </row>
+    <row r="213" spans="5:5">
+      <c r="E213" s="22"/>
+    </row>
+    <row r="214" spans="5:5">
+      <c r="E214" s="22"/>
+    </row>
+    <row r="215" spans="5:5">
+      <c r="E215" s="22"/>
+    </row>
+    <row r="216" spans="5:5">
+      <c r="E216" s="22"/>
+    </row>
+    <row r="217" spans="5:5">
+      <c r="E217" s="22"/>
+    </row>
+    <row r="218" spans="5:5">
+      <c r="E218" s="22"/>
+    </row>
+    <row r="219" spans="5:5">
+      <c r="E219" s="22"/>
+    </row>
+    <row r="220" spans="5:5">
+      <c r="E220" s="22"/>
+    </row>
+    <row r="221" spans="5:5">
+      <c r="E221" s="22"/>
+    </row>
+    <row r="222" spans="5:5">
+      <c r="E222" s="22"/>
+    </row>
+    <row r="223" spans="5:5">
+      <c r="E223" s="22"/>
+    </row>
+    <row r="224" spans="5:5">
+      <c r="E224" s="22"/>
+    </row>
+    <row r="225" spans="5:5">
+      <c r="E225" s="22"/>
+    </row>
+    <row r="226" spans="5:5">
+      <c r="E226" s="22"/>
+    </row>
+    <row r="227" spans="5:5">
+      <c r="E227" s="22"/>
+    </row>
+    <row r="228" spans="5:5">
+      <c r="E228" s="22"/>
+    </row>
+    <row r="229" spans="5:5">
+      <c r="E229" s="22"/>
+    </row>
+    <row r="230" spans="5:5">
+      <c r="E230" s="22"/>
+    </row>
+    <row r="231" spans="5:5">
+      <c r="E231" s="22"/>
+    </row>
+    <row r="232" spans="5:5">
+      <c r="E232" s="22"/>
+    </row>
+    <row r="233" spans="5:5">
+      <c r="E233" s="22"/>
+    </row>
+    <row r="234" spans="5:5">
+      <c r="E234" s="22"/>
+    </row>
+    <row r="235" spans="5:5">
+      <c r="E235" s="22"/>
+    </row>
+    <row r="236" spans="5:5">
+      <c r="E236" s="22"/>
+    </row>
+    <row r="237" spans="5:5">
+      <c r="E237" s="22"/>
+    </row>
+    <row r="238" spans="5:5">
+      <c r="E238" s="22"/>
+    </row>
+    <row r="239" spans="5:5">
+      <c r="E239" s="22"/>
+    </row>
+    <row r="240" spans="5:5">
+      <c r="E240" s="22"/>
     </row>
     <row r="241" spans="5:5">
-      <c r="E241" s="26"/>
+      <c r="E241" s="22"/>
     </row>
     <row r="242" spans="5:5">
-      <c r="E242" s="26"/>
+      <c r="E242" s="22"/>
     </row>
     <row r="243" spans="5:5">
-      <c r="E243" s="26"/>
+      <c r="E243" s="22"/>
     </row>
     <row r="244" spans="5:5">
-      <c r="E244" s="26"/>
+      <c r="E244" s="22"/>
     </row>
     <row r="245" spans="5:5">
-      <c r="E245" s="26"/>
+      <c r="E245" s="22"/>
     </row>
     <row r="246" spans="5:5">
-      <c r="E246" s="26"/>
+      <c r="E246" s="22"/>
     </row>
     <row r="247" spans="5:5">
-      <c r="E247" s="26"/>
+      <c r="E247" s="22"/>
     </row>
     <row r="248" spans="5:5">
-      <c r="E248" s="26"/>
+      <c r="E248" s="22"/>
     </row>
     <row r="249" spans="5:5">
-      <c r="E249" s="26"/>
+      <c r="E249" s="22"/>
     </row>
     <row r="250" spans="5:5">
-      <c r="E250" s="26"/>
+      <c r="E250" s="22"/>
     </row>
     <row r="251" spans="5:5">
-      <c r="E251" s="26"/>
+      <c r="E251" s="22"/>
     </row>
     <row r="252" spans="5:5">
-      <c r="E252" s="26"/>
+      <c r="E252" s="22"/>
     </row>
     <row r="253" spans="5:5">
-      <c r="E253" s="26"/>
+      <c r="E253" s="22"/>
     </row>
     <row r="254" spans="5:5">
-      <c r="E254" s="26"/>
+      <c r="E254" s="22"/>
     </row>
     <row r="255" spans="5:5">
-      <c r="E255" s="26"/>
+      <c r="E255" s="22"/>
     </row>
     <row r="256" spans="5:5">
-      <c r="E256" s="26"/>
+      <c r="E256" s="22"/>
     </row>
     <row r="257" spans="5:5">
-      <c r="E257" s="26"/>
+      <c r="E257" s="22"/>
     </row>
     <row r="258" spans="5:5">
-      <c r="E258" s="26"/>
+      <c r="E258" s="22"/>
     </row>
     <row r="259" spans="5:5">
-      <c r="E259" s="26"/>
+      <c r="E259" s="22"/>
     </row>
     <row r="260" spans="5:5">
-      <c r="E260" s="26"/>
+      <c r="E260" s="22"/>
     </row>
     <row r="261" spans="5:5">
-      <c r="E261" s="26"/>
+      <c r="E261" s="22"/>
     </row>
     <row r="262" spans="5:5">
-      <c r="E262" s="26"/>
+      <c r="E262" s="22"/>
     </row>
     <row r="263" spans="5:5">
-      <c r="E263" s="26"/>
+      <c r="E263" s="22"/>
     </row>
     <row r="264" spans="5:5">
-      <c r="E264" s="26"/>
+      <c r="E264" s="22"/>
     </row>
     <row r="265" spans="5:5">
-      <c r="E265" s="26"/>
+      <c r="E265" s="22"/>
     </row>
     <row r="266" spans="5:5">
-      <c r="E266" s="26"/>
+      <c r="E266" s="22"/>
     </row>
     <row r="267" spans="5:5">
-      <c r="E267" s="26"/>
+      <c r="E267" s="22"/>
     </row>
     <row r="268" spans="5:5">
-      <c r="E268" s="26"/>
+      <c r="E268" s="22"/>
     </row>
     <row r="269" spans="5:5">
-      <c r="E269" s="26"/>
+      <c r="E269" s="22"/>
     </row>
     <row r="270" spans="5:5">
-      <c r="E270" s="26"/>
+      <c r="E270" s="22"/>
     </row>
     <row r="271" spans="5:5">
-      <c r="E271" s="26"/>
+      <c r="E271" s="22"/>
     </row>
     <row r="272" spans="5:5">
-      <c r="E272" s="26"/>
+      <c r="E272" s="22"/>
     </row>
     <row r="273" spans="5:5">
-      <c r="E273" s="26"/>
+      <c r="E273" s="22"/>
     </row>
     <row r="274" spans="5:5">
-      <c r="E274" s="26"/>
+      <c r="E274" s="22"/>
     </row>
     <row r="275" spans="5:5">
-      <c r="E275" s="26"/>
+      <c r="E275" s="22"/>
     </row>
     <row r="276" spans="5:5">
-      <c r="E276" s="26"/>
+      <c r="E276" s="22"/>
     </row>
     <row r="277" spans="5:5">
-      <c r="E277" s="26"/>
+      <c r="E277" s="22"/>
     </row>
     <row r="278" spans="5:5">
-      <c r="E278" s="26"/>
+      <c r="E278" s="22"/>
     </row>
     <row r="279" spans="5:5">
-      <c r="E279" s="26"/>
+      <c r="E279" s="22"/>
     </row>
     <row r="280" spans="5:5">
-      <c r="E280" s="26"/>
+      <c r="E280" s="22"/>
     </row>
     <row r="281" spans="5:5">
-      <c r="E281" s="26"/>
+      <c r="E281" s="22"/>
     </row>
     <row r="282" spans="5:5">
-      <c r="E282" s="26"/>
+      <c r="E282" s="22"/>
     </row>
     <row r="283" spans="5:5">
-      <c r="E283" s="26"/>
+      <c r="E283" s="22"/>
     </row>
     <row r="284" spans="5:5">
-      <c r="E284" s="26"/>
+      <c r="E284" s="22"/>
     </row>
     <row r="285" spans="5:5">
-      <c r="E285" s="26"/>
+      <c r="E285" s="22"/>
     </row>
     <row r="286" spans="5:5">
-      <c r="E286" s="26"/>
+      <c r="E286" s="22"/>
     </row>
     <row r="287" spans="5:5">
-      <c r="E287" s="26"/>
+      <c r="E287" s="22"/>
     </row>
     <row r="288" spans="5:5">
-      <c r="E288" s="26"/>
+      <c r="E288" s="22"/>
     </row>
     <row r="289" spans="5:5">
-      <c r="E289" s="26"/>
+      <c r="E289" s="22"/>
     </row>
     <row r="290" spans="5:5">
-      <c r="E290" s="26"/>
+      <c r="E290" s="22"/>
     </row>
     <row r="291" spans="5:5">
-      <c r="E291" s="26"/>
+      <c r="E291" s="22"/>
     </row>
     <row r="292" spans="5:5">
-      <c r="E292" s="26"/>
+      <c r="E292" s="22"/>
     </row>
     <row r="293" spans="5:5">
-      <c r="E293" s="26"/>
+      <c r="E293" s="22"/>
     </row>
     <row r="294" spans="5:5">
-      <c r="E294" s="26"/>
+      <c r="E294" s="22"/>
     </row>
     <row r="295" spans="5:5">
-      <c r="E295" s="26"/>
+      <c r="E295" s="22"/>
     </row>
     <row r="296" spans="5:5">
-      <c r="E296" s="26"/>
+      <c r="E296" s="22"/>
     </row>
     <row r="297" spans="5:5">
-      <c r="E297" s="26"/>
+      <c r="E297" s="22"/>
     </row>
     <row r="298" spans="5:5">
-      <c r="E298" s="26"/>
+      <c r="E298" s="22"/>
     </row>
     <row r="299" spans="5:5">
-      <c r="E299" s="26"/>
+      <c r="E299" s="22"/>
     </row>
     <row r="300" spans="5:5">
-      <c r="E300" s="26"/>
+      <c r="E300" s="22"/>
     </row>
     <row r="301" spans="5:5">
-      <c r="E301" s="26"/>
+      <c r="E301" s="22"/>
     </row>
     <row r="302" spans="5:5">
-      <c r="E302" s="26"/>
+      <c r="E302" s="22"/>
     </row>
     <row r="303" spans="5:5">
-      <c r="E303" s="26"/>
+      <c r="E303" s="22"/>
     </row>
     <row r="304" spans="5:5">
-      <c r="E304" s="26"/>
+      <c r="E304" s="22"/>
     </row>
     <row r="305" spans="5:5">
-      <c r="E305" s="26"/>
+      <c r="E305" s="22"/>
     </row>
     <row r="306" spans="5:5">
-      <c r="E306" s="26"/>
+      <c r="E306" s="22"/>
     </row>
     <row r="307" spans="5:5">
-      <c r="E307" s="26"/>
+      <c r="E307" s="22"/>
     </row>
     <row r="308" spans="5:5">
-      <c r="E308" s="26"/>
+      <c r="E308" s="22"/>
     </row>
     <row r="309" spans="5:5">
-      <c r="E309" s="26"/>
+      <c r="E309" s="22"/>
     </row>
     <row r="310" spans="5:5">
-      <c r="E310" s="26"/>
+      <c r="E310" s="22"/>
     </row>
     <row r="311" spans="5:5">
-      <c r="E311" s="26"/>
+      <c r="E311" s="22"/>
     </row>
     <row r="312" spans="5:5">
-      <c r="E312" s="26"/>
+      <c r="E312" s="22"/>
     </row>
     <row r="313" spans="5:5">
-      <c r="E313" s="26"/>
+      <c r="E313" s="22"/>
     </row>
     <row r="314" spans="5:5">
-      <c r="E314" s="26"/>
+      <c r="E314" s="22"/>
     </row>
     <row r="315" spans="5:5">
-      <c r="E315" s="26"/>
+      <c r="E315" s="22"/>
     </row>
     <row r="316" spans="5:5">
-      <c r="E316" s="26"/>
+      <c r="E316" s="22"/>
     </row>
     <row r="317" spans="5:5">
-      <c r="E317" s="26"/>
+      <c r="E317" s="22"/>
     </row>
     <row r="318" spans="5:5">
-      <c r="E318" s="26"/>
+      <c r="E318" s="22"/>
     </row>
     <row r="319" spans="5:5">
-      <c r="E319" s="26"/>
+      <c r="E319" s="22"/>
     </row>
     <row r="320" spans="5:5">
-      <c r="E320" s="26"/>
+      <c r="E320" s="22"/>
     </row>
     <row r="321" spans="5:5">
-      <c r="E321" s="26"/>
+      <c r="E321" s="22"/>
     </row>
     <row r="322" spans="5:5">
-      <c r="E322" s="26"/>
+      <c r="E322" s="22"/>
     </row>
     <row r="323" spans="5:5">
-      <c r="E323" s="26"/>
+      <c r="E323" s="22"/>
     </row>
     <row r="324" spans="5:5">
-      <c r="E324" s="26"/>
+      <c r="E324" s="22"/>
     </row>
     <row r="325" spans="5:5">
-      <c r="E325" s="26"/>
+      <c r="E325" s="22"/>
     </row>
     <row r="326" spans="5:5">
-      <c r="E326" s="26"/>
+      <c r="E326" s="22"/>
     </row>
     <row r="327" spans="5:5">
-      <c r="E327" s="26"/>
+      <c r="E327" s="22"/>
     </row>
     <row r="328" spans="5:5">
-      <c r="E328" s="26"/>
+      <c r="E328" s="22"/>
     </row>
     <row r="329" spans="5:5">
-      <c r="E329" s="26"/>
+      <c r="E329" s="22"/>
     </row>
     <row r="330" spans="5:5">
-      <c r="E330" s="26"/>
+      <c r="E330" s="22"/>
     </row>
     <row r="331" spans="5:5">
-      <c r="E331" s="26"/>
+      <c r="E331" s="22"/>
     </row>
     <row r="332" spans="5:5">
-      <c r="E332" s="26"/>
+      <c r="E332" s="22"/>
     </row>
     <row r="333" spans="5:5">
-      <c r="E333" s="26"/>
+      <c r="E333" s="22"/>
     </row>
     <row r="334" spans="5:5">
-      <c r="E334" s="26"/>
+      <c r="E334" s="22"/>
     </row>
     <row r="335" spans="5:5">
-      <c r="E335" s="26"/>
+      <c r="E335" s="22"/>
     </row>
     <row r="336" spans="5:5">
-      <c r="E336" s="26"/>
+      <c r="E336" s="22"/>
     </row>
     <row r="337" spans="5:5">
-      <c r="E337" s="26"/>
+      <c r="E337" s="22"/>
     </row>
     <row r="338" spans="5:5">
-      <c r="E338" s="26"/>
+      <c r="E338" s="22"/>
     </row>
     <row r="339" spans="5:5">
-      <c r="E339" s="26"/>
+      <c r="E339" s="22"/>
     </row>
     <row r="340" spans="5:5">
-      <c r="E340" s="26"/>
+      <c r="E340" s="22"/>
     </row>
     <row r="341" spans="5:5">
-      <c r="E341" s="26"/>
+      <c r="E341" s="22"/>
     </row>
     <row r="342" spans="5:5">
-      <c r="E342" s="26"/>
+      <c r="E342" s="22"/>
     </row>
     <row r="343" spans="5:5">
-      <c r="E343" s="26"/>
+      <c r="E343" s="22"/>
     </row>
     <row r="344" spans="5:5">
-      <c r="E344" s="26"/>
+      <c r="E344" s="22"/>
     </row>
     <row r="345" spans="5:5">
-      <c r="E345" s="26"/>
+      <c r="E345" s="22"/>
     </row>
     <row r="346" spans="5:5">
-      <c r="E346" s="26"/>
+      <c r="E346" s="22"/>
     </row>
     <row r="347" spans="5:5">
-      <c r="E347" s="26"/>
+      <c r="E347" s="22"/>
     </row>
     <row r="348" spans="5:5">
-      <c r="E348" s="26"/>
+      <c r="E348" s="22"/>
     </row>
     <row r="349" spans="5:5">
-      <c r="E349" s="26"/>
+      <c r="E349" s="22"/>
     </row>
     <row r="350" spans="5:5">
-      <c r="E350" s="26"/>
+      <c r="E350" s="22"/>
     </row>
     <row r="351" spans="5:5">
-      <c r="E351" s="26"/>
+      <c r="E351" s="22"/>
     </row>
     <row r="352" spans="5:5">
-      <c r="E352" s="26"/>
+      <c r="E352" s="22"/>
     </row>
     <row r="353" spans="5:5">
-      <c r="E353" s="26"/>
+      <c r="E353" s="22"/>
     </row>
     <row r="354" spans="5:5">
-      <c r="E354" s="26"/>
+      <c r="E354" s="22"/>
     </row>
     <row r="355" spans="5:5">
-      <c r="E355" s="26"/>
+      <c r="E355" s="22"/>
     </row>
     <row r="356" spans="5:5">
-      <c r="E356" s="26"/>
+      <c r="E356" s="22"/>
     </row>
     <row r="357" spans="5:5">
-      <c r="E357" s="26"/>
+      <c r="E357" s="22"/>
     </row>
     <row r="358" spans="5:5">
-      <c r="E358" s="26"/>
+      <c r="E358" s="22"/>
     </row>
     <row r="359" spans="5:5">
-      <c r="E359" s="26"/>
+      <c r="E359" s="22"/>
     </row>
     <row r="360" spans="5:5">
-      <c r="E360" s="26"/>
+      <c r="E360" s="22"/>
     </row>
     <row r="361" spans="5:5">
-      <c r="E361" s="26"/>
+      <c r="E361" s="22"/>
     </row>
     <row r="362" spans="5:5">
-      <c r="E362" s="26"/>
+      <c r="E362" s="22"/>
     </row>
     <row r="363" spans="5:5">
-      <c r="E363" s="26"/>
+      <c r="E363" s="22"/>
     </row>
     <row r="364" spans="5:5">
-      <c r="E364" s="26"/>
+      <c r="E364" s="22"/>
     </row>
     <row r="365" spans="5:5">
-      <c r="E365" s="26"/>
+      <c r="E365" s="22"/>
     </row>
     <row r="366" spans="5:5">
-      <c r="E366" s="26"/>
+      <c r="E366" s="22"/>
     </row>
     <row r="367" spans="5:5">
-      <c r="E367" s="26"/>
+      <c r="E367" s="22"/>
     </row>
     <row r="368" spans="5:5">
-      <c r="E368" s="26"/>
+      <c r="E368" s="22"/>
     </row>
     <row r="369" spans="5:5">
-      <c r="E369" s="26"/>
+      <c r="E369" s="22"/>
     </row>
     <row r="370" spans="5:5">
-      <c r="E370" s="26"/>
+      <c r="E370" s="22"/>
     </row>
     <row r="371" spans="5:5">
-      <c r="E371" s="26"/>
+      <c r="E371" s="22"/>
     </row>
     <row r="372" spans="5:5">
-      <c r="E372" s="26"/>
+      <c r="E372" s="22"/>
     </row>
     <row r="373" spans="5:5">
-      <c r="E373" s="26"/>
+      <c r="E373" s="22"/>
     </row>
     <row r="374" spans="5:5">
-      <c r="E374" s="26"/>
+      <c r="E374" s="22"/>
     </row>
     <row r="375" spans="5:5">
-      <c r="E375" s="26"/>
+      <c r="E375" s="22"/>
     </row>
     <row r="376" spans="5:5">
-      <c r="E376" s="26"/>
+      <c r="E376" s="22"/>
     </row>
     <row r="377" spans="5:5">
-      <c r="E377" s="26"/>
+      <c r="E377" s="22"/>
     </row>
     <row r="378" spans="5:5">
-      <c r="E378" s="26"/>
+      <c r="E378" s="22"/>
     </row>
     <row r="379" spans="5:5">
-      <c r="E379" s="26"/>
+      <c r="E379" s="22"/>
     </row>
     <row r="380" spans="5:5">
-      <c r="E380" s="26"/>
+      <c r="E380" s="22"/>
     </row>
     <row r="381" spans="5:5">
-      <c r="E381" s="26"/>
+      <c r="E381" s="22"/>
     </row>
     <row r="382" spans="5:5">
-      <c r="E382" s="26"/>
+      <c r="E382" s="22"/>
     </row>
     <row r="383" spans="5:5">
-      <c r="E383" s="26"/>
+      <c r="E383" s="22"/>
     </row>
     <row r="384" spans="5:5">
-      <c r="E384" s="26"/>
+      <c r="E384" s="22"/>
     </row>
     <row r="385" spans="5:5">
-      <c r="E385" s="26"/>
+      <c r="E385" s="22"/>
     </row>
     <row r="386" spans="5:5">
-      <c r="E386" s="26"/>
+      <c r="E386" s="22"/>
     </row>
     <row r="387" spans="5:5">
-      <c r="E387" s="26"/>
+      <c r="E387" s="22"/>
     </row>
     <row r="388" spans="5:5">
-      <c r="E388" s="26"/>
+      <c r="E388" s="22"/>
     </row>
     <row r="389" spans="5:5">
-      <c r="E389" s="26"/>
+      <c r="E389" s="22"/>
     </row>
     <row r="390" spans="5:5">
-      <c r="E390" s="26"/>
+      <c r="E390" s="22"/>
     </row>
     <row r="391" spans="5:5">
-      <c r="E391" s="26"/>
+      <c r="E391" s="22"/>
     </row>
     <row r="392" spans="5:5">
-      <c r="E392" s="26"/>
+      <c r="E392" s="22"/>
     </row>
     <row r="393" spans="5:5">
-      <c r="E393" s="26"/>
+      <c r="E393" s="22"/>
     </row>
     <row r="394" spans="5:5">
-      <c r="E394" s="26"/>
+      <c r="E394" s="22"/>
     </row>
     <row r="395" spans="5:5">
-      <c r="E395" s="26"/>
+      <c r="E395" s="22"/>
     </row>
     <row r="396" spans="5:5">
-      <c r="E396" s="26"/>
+      <c r="E396" s="22"/>
     </row>
     <row r="397" spans="5:5">
-      <c r="E397" s="26"/>
+      <c r="E397" s="22"/>
     </row>
     <row r="398" spans="5:5">
-      <c r="E398" s="26"/>
+      <c r="E398" s="22"/>
     </row>
     <row r="399" spans="5:5">
-      <c r="E399" s="26"/>
+      <c r="E399" s="22"/>
     </row>
     <row r="400" spans="5:5">
-      <c r="E400" s="26"/>
+      <c r="E400" s="22"/>
     </row>
     <row r="401" spans="5:5">
-      <c r="E401" s="26"/>
+      <c r="E401" s="22"/>
     </row>
     <row r="402" spans="5:5">
-      <c r="E402" s="26"/>
+      <c r="E402" s="22"/>
     </row>
     <row r="403" spans="5:5">
-      <c r="E403" s="26"/>
+      <c r="E403" s="22"/>
     </row>
     <row r="404" spans="5:5">
-      <c r="E404" s="26"/>
+      <c r="E404" s="22"/>
     </row>
     <row r="405" spans="5:5">
-      <c r="E405" s="26"/>
+      <c r="E405" s="22"/>
     </row>
     <row r="406" spans="5:5">
-      <c r="E406" s="26"/>
+      <c r="E406" s="22"/>
     </row>
     <row r="407" spans="5:5">
-      <c r="E407" s="26"/>
+      <c r="E407" s="22"/>
     </row>
     <row r="408" spans="5:5">
-      <c r="E408" s="26"/>
+      <c r="E408" s="22"/>
     </row>
     <row r="409" spans="5:5">
-      <c r="E409" s="26"/>
+      <c r="E409" s="22"/>
     </row>
     <row r="410" spans="5:5">
-      <c r="E410" s="26"/>
+      <c r="E410" s="22"/>
     </row>
     <row r="411" spans="5:5">
-      <c r="E411" s="26"/>
+      <c r="E411" s="22"/>
     </row>
     <row r="412" spans="5:5">
-      <c r="E412" s="26"/>
+      <c r="E412" s="22"/>
     </row>
     <row r="413" spans="5:5">
-      <c r="E413" s="26"/>
+      <c r="E413" s="22"/>
     </row>
     <row r="414" spans="5:5">
-      <c r="E414" s="26"/>
+      <c r="E414" s="22"/>
     </row>
     <row r="415" spans="5:5">
-      <c r="E415" s="26"/>
+      <c r="E415" s="22"/>
     </row>
     <row r="416" spans="5:5">
-      <c r="E416" s="26"/>
+      <c r="E416" s="22"/>
     </row>
     <row r="417" spans="5:5">
-      <c r="E417" s="26"/>
+      <c r="E417" s="22"/>
     </row>
     <row r="418" spans="5:5">
-      <c r="E418" s="26"/>
+      <c r="E418" s="22"/>
     </row>
     <row r="419" spans="5:5">
-      <c r="E419" s="26"/>
+      <c r="E419" s="22"/>
     </row>
     <row r="420" spans="5:5">
-      <c r="E420" s="26"/>
+      <c r="E420" s="22"/>
     </row>
     <row r="421" spans="5:5">
-      <c r="E421" s="26"/>
+      <c r="E421" s="22"/>
     </row>
     <row r="422" spans="5:5">
-      <c r="E422" s="26"/>
+      <c r="E422" s="22"/>
     </row>
     <row r="423" spans="5:5">
-      <c r="E423" s="26"/>
+      <c r="E423" s="22"/>
     </row>
     <row r="424" spans="5:5">
-      <c r="E424" s="26"/>
+      <c r="E424" s="22"/>
     </row>
     <row r="425" spans="5:5">
-      <c r="E425" s="26"/>
+      <c r="E425" s="22"/>
     </row>
     <row r="426" spans="5:5">
-      <c r="E426" s="26"/>
+      <c r="E426" s="22"/>
     </row>
     <row r="427" spans="5:5">
-      <c r="E427" s="26"/>
+      <c r="E427" s="22"/>
     </row>
     <row r="428" spans="5:5">
-      <c r="E428" s="26"/>
+      <c r="E428" s="22"/>
     </row>
     <row r="429" spans="5:5">
-      <c r="E429" s="26"/>
+      <c r="E429" s="22"/>
     </row>
     <row r="430" spans="5:5">
-      <c r="E430" s="26"/>
+      <c r="E430" s="22"/>
     </row>
     <row r="431" spans="5:5">
-      <c r="E431" s="26"/>
+      <c r="E431" s="22"/>
     </row>
     <row r="432" spans="5:5">
-      <c r="E432" s="26"/>
+      <c r="E432" s="22"/>
     </row>
     <row r="433" spans="5:5">
-      <c r="E433" s="26"/>
+      <c r="E433" s="22"/>
     </row>
     <row r="434" spans="5:5">
-      <c r="E434" s="26"/>
+      <c r="E434" s="22"/>
     </row>
     <row r="435" spans="5:5">
-      <c r="E435" s="26"/>
+      <c r="E435" s="22"/>
     </row>
     <row r="436" spans="5:5">
-      <c r="E436" s="26"/>
+      <c r="E436" s="22"/>
     </row>
     <row r="437" spans="5:5">
-      <c r="E437" s="26"/>
+      <c r="E437" s="22"/>
     </row>
     <row r="438" spans="5:5">
-      <c r="E438" s="26"/>
+      <c r="E438" s="22"/>
     </row>
     <row r="439" spans="5:5">
-      <c r="E439" s="26"/>
+      <c r="E439" s="22"/>
     </row>
     <row r="440" spans="5:5">
-      <c r="E440" s="26"/>
+      <c r="E440" s="22"/>
     </row>
     <row r="441" spans="5:5">
-      <c r="E441" s="26"/>
+      <c r="E441" s="22"/>
     </row>
     <row r="442" spans="5:5">
-      <c r="E442" s="26"/>
+      <c r="E442" s="22"/>
     </row>
     <row r="443" spans="5:5">
-      <c r="E443" s="26"/>
+      <c r="E443" s="22"/>
     </row>
     <row r="444" spans="5:5">
-      <c r="E444" s="26"/>
+      <c r="E444" s="22"/>
     </row>
     <row r="445" spans="5:5">
-      <c r="E445" s="26"/>
+      <c r="E445" s="22"/>
     </row>
     <row r="446" spans="5:5">
-      <c r="E446" s="26"/>
+      <c r="E446" s="22"/>
     </row>
     <row r="447" spans="5:5">
-      <c r="E447" s="26"/>
+      <c r="E447" s="22"/>
     </row>
     <row r="448" spans="5:5">
-      <c r="E448" s="26"/>
+      <c r="E448" s="22"/>
     </row>
     <row r="449" spans="5:5">
-      <c r="E449" s="26"/>
+      <c r="E449" s="22"/>
     </row>
     <row r="450" spans="5:5">
-      <c r="E450" s="26"/>
+      <c r="E450" s="22"/>
     </row>
     <row r="451" spans="5:5">
-      <c r="E451" s="26"/>
+      <c r="E451" s="22"/>
     </row>
     <row r="452" spans="5:5">
-      <c r="E452" s="26"/>
+      <c r="E452" s="22"/>
     </row>
     <row r="453" spans="5:5">
-      <c r="E453" s="26"/>
+      <c r="E453" s="22"/>
     </row>
     <row r="454" spans="5:5">
-      <c r="E454" s="26"/>
+      <c r="E454" s="22"/>
     </row>
     <row r="455" spans="5:5">
-      <c r="E455" s="26"/>
+      <c r="E455" s="22"/>
     </row>
     <row r="456" spans="5:5">
-      <c r="E456" s="26"/>
+      <c r="E456" s="22"/>
     </row>
     <row r="457" spans="5:5">
-      <c r="E457" s="26"/>
+      <c r="E457" s="22"/>
     </row>
     <row r="458" spans="5:5">
-      <c r="E458" s="26"/>
+      <c r="E458" s="22"/>
     </row>
     <row r="459" spans="5:5">
-      <c r="E459" s="26"/>
+      <c r="E459" s="22"/>
     </row>
     <row r="460" spans="5:5">
-      <c r="E460" s="26"/>
+      <c r="E460" s="22"/>
     </row>
     <row r="461" spans="5:5">
-      <c r="E461" s="26"/>
+      <c r="E461" s="22"/>
     </row>
     <row r="462" spans="5:5">
-      <c r="E462" s="26"/>
+      <c r="E462" s="22"/>
     </row>
     <row r="463" spans="5:5">
-      <c r="E463" s="26"/>
+      <c r="E463" s="22"/>
     </row>
     <row r="464" spans="5:5">
-      <c r="E464" s="26"/>
+      <c r="E464" s="22"/>
     </row>
     <row r="465" spans="5:5">
-      <c r="E465" s="26"/>
+      <c r="E465" s="22"/>
     </row>
     <row r="466" spans="5:5">
-      <c r="E466" s="26"/>
+      <c r="E466" s="22"/>
     </row>
     <row r="467" spans="5:5">
-      <c r="E467" s="26"/>
+      <c r="E467" s="22"/>
     </row>
     <row r="468" spans="5:5">
-      <c r="E468" s="26"/>
+      <c r="E468" s="22"/>
     </row>
     <row r="469" spans="5:5">
-      <c r="E469" s="26"/>
+      <c r="E469" s="22"/>
     </row>
     <row r="470" spans="5:5">
-      <c r="E470" s="26"/>
+      <c r="E470" s="22"/>
     </row>
     <row r="471" spans="5:5">
-      <c r="E471" s="26"/>
+      <c r="E471" s="22"/>
     </row>
     <row r="472" spans="5:5">
-      <c r="E472" s="26"/>
+      <c r="E472" s="22"/>
     </row>
     <row r="473" spans="5:5">
-      <c r="E473" s="26"/>
+      <c r="E473" s="22"/>
     </row>
     <row r="474" spans="5:5">
-      <c r="E474" s="26"/>
+      <c r="E474" s="22"/>
     </row>
     <row r="475" spans="5:5">
-      <c r="E475" s="26"/>
+      <c r="E475" s="22"/>
     </row>
     <row r="476" spans="5:5">
-      <c r="E476" s="26"/>
+      <c r="E476" s="22"/>
     </row>
     <row r="477" spans="5:5">
-      <c r="E477" s="26"/>
+      <c r="E477" s="22"/>
     </row>
     <row r="478" spans="5:5">
-      <c r="E478" s="26"/>
+      <c r="E478" s="22"/>
     </row>
     <row r="479" spans="5:5">
-      <c r="E479" s="26"/>
+      <c r="E479" s="22"/>
     </row>
     <row r="480" spans="5:5">
-      <c r="E480" s="26"/>
+      <c r="E480" s="22"/>
     </row>
     <row r="481" spans="5:5">
-      <c r="E481" s="26"/>
+      <c r="E481" s="22"/>
     </row>
     <row r="482" spans="5:5">
-      <c r="E482" s="26"/>
+      <c r="E482" s="22"/>
     </row>
     <row r="483" spans="5:5">
-      <c r="E483" s="26"/>
+      <c r="E483" s="22"/>
     </row>
     <row r="484" spans="5:5">
-      <c r="E484" s="26"/>
+      <c r="E484" s="22"/>
     </row>
     <row r="485" spans="5:5">
-      <c r="E485" s="26"/>
+      <c r="E485" s="22"/>
     </row>
     <row r="486" spans="5:5">
-      <c r="E486" s="26"/>
+      <c r="E486" s="22"/>
     </row>
     <row r="487" spans="5:5">
-      <c r="E487" s="26"/>
+      <c r="E487" s="22"/>
     </row>
     <row r="488" spans="5:5">
-      <c r="E488" s="26"/>
+      <c r="E488" s="22"/>
     </row>
     <row r="489" spans="5:5">
-      <c r="E489" s="26"/>
+      <c r="E489" s="22"/>
     </row>
     <row r="490" spans="5:5">
-      <c r="E490" s="26"/>
+      <c r="E490" s="22"/>
     </row>
     <row r="491" spans="5:5">
-      <c r="E491" s="26"/>
+      <c r="E491" s="22"/>
     </row>
     <row r="492" spans="5:5">
-      <c r="E492" s="26"/>
+      <c r="E492" s="22"/>
     </row>
     <row r="493" spans="5:5">
-      <c r="E493" s="26"/>
+      <c r="E493" s="22"/>
     </row>
     <row r="494" spans="5:5">
-      <c r="E494" s="26"/>
+      <c r="E494" s="22"/>
     </row>
     <row r="495" spans="5:5">
-      <c r="E495" s="26"/>
+      <c r="E495" s="22"/>
     </row>
     <row r="496" spans="5:5">
-      <c r="E496" s="26"/>
+      <c r="E496" s="22"/>
     </row>
     <row r="497" spans="5:5">
-      <c r="E497" s="26"/>
+      <c r="E497" s="22"/>
     </row>
     <row r="498" spans="5:5">
-      <c r="E498" s="26"/>
+      <c r="E498" s="22"/>
     </row>
     <row r="499" spans="5:5">
-      <c r="E499" s="26"/>
+      <c r="E499" s="22"/>
     </row>
     <row r="500" spans="5:5">
-      <c r="E500" s="26"/>
+      <c r="E500" s="22"/>
     </row>
     <row r="501" spans="5:5">
-      <c r="E501" s="26"/>
+      <c r="E501" s="22"/>
     </row>
     <row r="502" spans="5:5">
-      <c r="E502" s="26"/>
+      <c r="E502" s="22"/>
     </row>
     <row r="503" spans="5:5">
-      <c r="E503" s="26"/>
+      <c r="E503" s="22"/>
     </row>
     <row r="504" spans="5:5">
-      <c r="E504" s="26"/>
+      <c r="E504" s="22"/>
     </row>
     <row r="505" spans="5:5">
-      <c r="E505" s="26"/>
+      <c r="E505" s="22"/>
     </row>
     <row r="506" spans="5:5">
-      <c r="E506" s="26"/>
+      <c r="E506" s="22"/>
     </row>
     <row r="507" spans="5:5">
-      <c r="E507" s="26"/>
+      <c r="E507" s="22"/>
     </row>
     <row r="508" spans="5:5">
-      <c r="E508" s="26"/>
+      <c r="E508" s="22"/>
     </row>
     <row r="509" spans="5:5">
-      <c r="E509" s="26"/>
+      <c r="E509" s="22"/>
     </row>
     <row r="510" spans="5:5">
-      <c r="E510" s="26"/>
+      <c r="E510" s="22"/>
     </row>
     <row r="511" spans="5:5">
-      <c r="E511" s="26"/>
+      <c r="E511" s="22"/>
     </row>
     <row r="512" spans="5:5">
-      <c r="E512" s="26"/>
+      <c r="E512" s="22"/>
     </row>
     <row r="513" spans="5:5">
-      <c r="E513" s="26"/>
+      <c r="E513" s="22"/>
     </row>
     <row r="514" spans="5:5">
-      <c r="E514" s="26"/>
+      <c r="E514" s="22"/>
     </row>
     <row r="515" spans="5:5">
-      <c r="E515" s="26"/>
+      <c r="E515" s="22"/>
     </row>
     <row r="516" spans="5:5">
-      <c r="E516" s="26"/>
+      <c r="E516" s="22"/>
     </row>
     <row r="517" spans="5:5">
-      <c r="E517" s="26"/>
+      <c r="E517" s="22"/>
     </row>
     <row r="518" spans="5:5">
-      <c r="E518" s="26"/>
+      <c r="E518" s="22"/>
     </row>
     <row r="519" spans="5:5">
-      <c r="E519" s="26"/>
+      <c r="E519" s="22"/>
     </row>
     <row r="520" spans="5:5">
-      <c r="E520" s="26"/>
+      <c r="E520" s="22"/>
     </row>
     <row r="521" spans="5:5">
-      <c r="E521" s="26"/>
+      <c r="E521" s="22"/>
     </row>
     <row r="522" spans="5:5">
-      <c r="E522" s="26"/>
+      <c r="E522" s="22"/>
     </row>
     <row r="523" spans="5:5">
-      <c r="E523" s="26"/>
+      <c r="E523" s="22"/>
     </row>
     <row r="524" spans="5:5">
-      <c r="E524" s="26"/>
+      <c r="E524" s="22"/>
     </row>
     <row r="525" spans="5:5">
-      <c r="E525" s="26"/>
+      <c r="E525" s="22"/>
     </row>
     <row r="526" spans="5:5">
-      <c r="E526" s="26"/>
+      <c r="E526" s="22"/>
     </row>
     <row r="527" spans="5:5">
-      <c r="E527" s="26"/>
+      <c r="E527" s="22"/>
     </row>
     <row r="528" spans="5:5">
-      <c r="E528" s="26"/>
+      <c r="E528" s="22"/>
     </row>
     <row r="529" spans="5:5">
-      <c r="E529" s="26"/>
+      <c r="E529" s="22"/>
     </row>
     <row r="530" spans="5:5">
-      <c r="E530" s="26"/>
+      <c r="E530" s="22"/>
     </row>
     <row r="531" spans="5:5">
-      <c r="E531" s="26"/>
+      <c r="E531" s="22"/>
     </row>
     <row r="532" spans="5:5">
-      <c r="E532" s="26"/>
+      <c r="E532" s="22"/>
     </row>
     <row r="533" spans="5:5">
-      <c r="E533" s="26"/>
+      <c r="E533" s="22"/>
     </row>
     <row r="534" spans="5:5">
-      <c r="E534" s="26"/>
+      <c r="E534" s="22"/>
     </row>
     <row r="535" spans="5:5">
-      <c r="E535" s="26"/>
+      <c r="E535" s="22"/>
     </row>
     <row r="536" spans="5:5">
-      <c r="E536" s="26"/>
+      <c r="E536" s="22"/>
     </row>
     <row r="537" spans="5:5">
-      <c r="E537" s="26"/>
+      <c r="E537" s="22"/>
     </row>
     <row r="538" spans="5:5">
-      <c r="E538" s="26"/>
+      <c r="E538" s="22"/>
     </row>
     <row r="539" spans="5:5">
-      <c r="E539" s="26"/>
+      <c r="E539" s="22"/>
     </row>
     <row r="540" spans="5:5">
-      <c r="E540" s="26"/>
+      <c r="E540" s="22"/>
     </row>
     <row r="541" spans="5:5">
-      <c r="E541" s="26"/>
+      <c r="E541" s="22"/>
     </row>
     <row r="542" spans="5:5">
-      <c r="E542" s="26"/>
+      <c r="E542" s="22"/>
     </row>
     <row r="543" spans="5:5">
-      <c r="E543" s="26"/>
+      <c r="E543" s="22"/>
     </row>
     <row r="544" spans="5:5">
-      <c r="E544" s="26"/>
+      <c r="E544" s="22"/>
     </row>
     <row r="545" spans="5:5">
-      <c r="E545" s="26"/>
+      <c r="E545" s="22"/>
     </row>
     <row r="546" spans="5:5">
-      <c r="E546" s="26"/>
+      <c r="E546" s="22"/>
     </row>
     <row r="547" spans="5:5">
-      <c r="E547" s="26"/>
+      <c r="E547" s="22"/>
     </row>
     <row r="548" spans="5:5">
-      <c r="E548" s="26"/>
+      <c r="E548" s="22"/>
     </row>
     <row r="549" spans="5:5">
-      <c r="E549" s="26"/>
+      <c r="E549" s="22"/>
     </row>
     <row r="550" spans="5:5">
-      <c r="E550" s="26"/>
+      <c r="E550" s="22"/>
     </row>
     <row r="551" spans="5:5">
-      <c r="E551" s="26"/>
+      <c r="E551" s="22"/>
     </row>
     <row r="552" spans="5:5">
-      <c r="E552" s="26"/>
+      <c r="E552" s="22"/>
     </row>
     <row r="553" spans="5:5">
-      <c r="E553" s="26"/>
+      <c r="E553" s="22"/>
     </row>
     <row r="554" spans="5:5">
-      <c r="E554" s="26"/>
+      <c r="E554" s="22"/>
     </row>
     <row r="555" spans="5:5">
-      <c r="E555" s="26"/>
+      <c r="E555" s="22"/>
     </row>
     <row r="556" spans="5:5">
-      <c r="E556" s="26"/>
+      <c r="E556" s="22"/>
     </row>
     <row r="557" spans="5:5">
-      <c r="E557" s="26"/>
+      <c r="E557" s="22"/>
     </row>
     <row r="558" spans="5:5">
-      <c r="E558" s="26"/>
+      <c r="E558" s="22"/>
     </row>
     <row r="559" spans="5:5">
-      <c r="E559" s="26"/>
+      <c r="E559" s="22"/>
     </row>
     <row r="560" spans="5:5">
-      <c r="E560" s="26"/>
+      <c r="E560" s="22"/>
     </row>
     <row r="561" spans="5:5">
-      <c r="E561" s="26"/>
+      <c r="E561" s="22"/>
     </row>
     <row r="562" spans="5:5">
-      <c r="E562" s="26"/>
+      <c r="E562" s="22"/>
     </row>
     <row r="563" spans="5:5">
-      <c r="E563" s="26"/>
+      <c r="E563" s="22"/>
     </row>
     <row r="564" spans="5:5">
-      <c r="E564" s="26"/>
+      <c r="E564" s="22"/>
     </row>
     <row r="565" spans="5:5">
-      <c r="E565" s="26"/>
+      <c r="E565" s="22"/>
     </row>
     <row r="566" spans="5:5">
-      <c r="E566" s="26"/>
+      <c r="E566" s="22"/>
     </row>
     <row r="567" spans="5:5">
-      <c r="E567" s="26"/>
+      <c r="E567" s="22"/>
     </row>
     <row r="568" spans="5:5">
-      <c r="E568" s="26"/>
+      <c r="E568" s="22"/>
     </row>
     <row r="569" spans="5:5">
-      <c r="E569" s="26"/>
+      <c r="E569" s="22"/>
     </row>
     <row r="570" spans="5:5">
-      <c r="E570" s="26"/>
+      <c r="E570" s="22"/>
     </row>
     <row r="571" spans="5:5">
-      <c r="E571" s="26"/>
+      <c r="E571" s="22"/>
     </row>
     <row r="572" spans="5:5">
-      <c r="E572" s="26"/>
+      <c r="E572" s="22"/>
     </row>
     <row r="573" spans="5:5">
-      <c r="E573" s="26"/>
+      <c r="E573" s="22"/>
     </row>
     <row r="574" spans="5:5">
-      <c r="E574" s="26"/>
+      <c r="E574" s="22"/>
     </row>
     <row r="575" spans="5:5">
-      <c r="E575" s="26"/>
+      <c r="E575" s="22"/>
     </row>
     <row r="576" spans="5:5">
-      <c r="E576" s="26"/>
+      <c r="E576" s="22"/>
     </row>
     <row r="577" spans="5:5">
-      <c r="E577" s="26"/>
+      <c r="E577" s="22"/>
     </row>
     <row r="578" spans="5:5">
-      <c r="E578" s="26"/>
+      <c r="E578" s="22"/>
     </row>
     <row r="579" spans="5:5">
-      <c r="E579" s="26"/>
+      <c r="E579" s="22"/>
     </row>
     <row r="580" spans="5:5">
-      <c r="E580" s="26"/>
+      <c r="E580" s="22"/>
     </row>
     <row r="581" spans="5:5">
-      <c r="E581" s="26"/>
+      <c r="E581" s="22"/>
     </row>
     <row r="582" spans="5:5">
-      <c r="E582" s="26"/>
+      <c r="E582" s="22"/>
     </row>
     <row r="583" spans="5:5">
-      <c r="E583" s="26"/>
+      <c r="E583" s="22"/>
     </row>
     <row r="584" spans="5:5">
-      <c r="E584" s="26"/>
+      <c r="E584" s="22"/>
     </row>
     <row r="585" spans="5:5">
-      <c r="E585" s="26"/>
+      <c r="E585" s="22"/>
     </row>
     <row r="586" spans="5:5">
-      <c r="E586" s="26"/>
+      <c r="E586" s="22"/>
     </row>
     <row r="587" spans="5:5">
-      <c r="E587" s="26"/>
+      <c r="E587" s="22"/>
     </row>
     <row r="588" spans="5:5">
-      <c r="E588" s="26"/>
+      <c r="E588" s="22"/>
     </row>
     <row r="589" spans="5:5">
-      <c r="E589" s="26"/>
+      <c r="E589" s="22"/>
     </row>
     <row r="590" spans="5:5">
-      <c r="E590" s="26"/>
+      <c r="E590" s="22"/>
     </row>
     <row r="591" spans="5:5">
-      <c r="E591" s="26"/>
+      <c r="E591" s="22"/>
     </row>
     <row r="592" spans="5:5">
-      <c r="E592" s="26"/>
+      <c r="E592" s="22"/>
     </row>
     <row r="593" spans="5:5">
-      <c r="E593" s="26"/>
+      <c r="E593" s="22"/>
     </row>
     <row r="594" spans="5:5">
-      <c r="E594" s="26"/>
+      <c r="E594" s="22"/>
     </row>
     <row r="595" spans="5:5">
-      <c r="E595" s="26"/>
+      <c r="E595" s="22"/>
     </row>
     <row r="596" spans="5:5">
-      <c r="E596" s="26"/>
+      <c r="E596" s="22"/>
     </row>
     <row r="597" spans="5:5">
-      <c r="E597" s="26"/>
+      <c r="E597" s="22"/>
     </row>
     <row r="598" spans="5:5">
-      <c r="E598" s="26"/>
+      <c r="E598" s="22"/>
     </row>
     <row r="599" spans="5:5">
-      <c r="E599" s="26"/>
+      <c r="E599" s="22"/>
     </row>
     <row r="600" spans="5:5">
-      <c r="E600" s="26"/>
+      <c r="E600" s="22"/>
     </row>
     <row r="601" spans="5:5">
-      <c r="E601" s="26"/>
+      <c r="E601" s="22"/>
     </row>
     <row r="602" spans="5:5">
-      <c r="E602" s="26"/>
+      <c r="E602" s="22"/>
     </row>
     <row r="603" spans="5:5">
-      <c r="E603" s="26"/>
+      <c r="E603" s="22"/>
     </row>
     <row r="604" spans="5:5">
-      <c r="E604" s="26"/>
+      <c r="E604" s="22"/>
     </row>
     <row r="605" spans="5:5">
-      <c r="E605" s="26"/>
+      <c r="E605" s="22"/>
     </row>
     <row r="606" spans="5:5">
-      <c r="E606" s="26"/>
+      <c r="E606" s="22"/>
     </row>
     <row r="607" spans="5:5">
-      <c r="E607" s="26"/>
+      <c r="E607" s="22"/>
     </row>
     <row r="608" spans="5:5">
-      <c r="E608" s="26"/>
+      <c r="E608" s="22"/>
     </row>
     <row r="609" spans="5:5">
-      <c r="E609" s="26"/>
+      <c r="E609" s="22"/>
     </row>
     <row r="610" spans="5:5">
-      <c r="E610" s="26"/>
+      <c r="E610" s="22"/>
     </row>
     <row r="611" spans="5:5">
-      <c r="E611" s="26"/>
+      <c r="E611" s="22"/>
     </row>
     <row r="612" spans="5:5">
-      <c r="E612" s="26"/>
+      <c r="E612" s="22"/>
     </row>
     <row r="613" spans="5:5">
-      <c r="E613" s="26"/>
+      <c r="E613" s="22"/>
     </row>
     <row r="614" spans="5:5">
-      <c r="E614" s="26"/>
+      <c r="E614" s="22"/>
     </row>
     <row r="615" spans="5:5">
-      <c r="E615" s="26"/>
+      <c r="E615" s="22"/>
     </row>
     <row r="616" spans="5:5">
-      <c r="E616" s="26"/>
+      <c r="E616" s="22"/>
     </row>
     <row r="617" spans="5:5">
-      <c r="E617" s="26"/>
+      <c r="E617" s="22"/>
     </row>
     <row r="618" spans="5:5">
-      <c r="E618" s="26"/>
+      <c r="E618" s="22"/>
     </row>
     <row r="619" spans="5:5">
-      <c r="E619" s="26"/>
+      <c r="E619" s="22"/>
     </row>
     <row r="620" spans="5:5">
-      <c r="E620" s="26"/>
+      <c r="E620" s="22"/>
     </row>
     <row r="621" spans="5:5">
-      <c r="E621" s="26"/>
+      <c r="E621" s="22"/>
     </row>
     <row r="622" spans="5:5">
-      <c r="E622" s="26"/>
+      <c r="E622" s="22"/>
     </row>
     <row r="623" spans="5:5">
-      <c r="E623" s="26"/>
+      <c r="E623" s="22"/>
     </row>
     <row r="624" spans="5:5">
-      <c r="E624" s="26"/>
+      <c r="E624" s="22"/>
     </row>
     <row r="625" spans="5:5">
-      <c r="E625" s="26"/>
+      <c r="E625" s="22"/>
     </row>
     <row r="626" spans="5:5">
-      <c r="E626" s="26"/>
+      <c r="E626" s="22"/>
     </row>
     <row r="627" spans="5:5">
-      <c r="E627" s="26"/>
+      <c r="E627" s="22"/>
     </row>
     <row r="628" spans="5:5">
-      <c r="E628" s="26"/>
+      <c r="E628" s="22"/>
     </row>
     <row r="629" spans="5:5">
-      <c r="E629" s="26"/>
+      <c r="E629" s="22"/>
     </row>
     <row r="630" spans="5:5">
-      <c r="E630" s="26"/>
+      <c r="E630" s="22"/>
     </row>
     <row r="631" spans="5:5">
-      <c r="E631" s="26"/>
+      <c r="E631" s="22"/>
     </row>
     <row r="632" spans="5:5">
-      <c r="E632" s="26"/>
+      <c r="E632" s="22"/>
     </row>
     <row r="633" spans="5:5">
-      <c r="E633" s="26"/>
+      <c r="E633" s="22"/>
     </row>
     <row r="634" spans="5:5">
-      <c r="E634" s="26"/>
+      <c r="E634" s="22"/>
     </row>
     <row r="635" spans="5:5">
-      <c r="E635" s="26"/>
+      <c r="E635" s="22"/>
     </row>
     <row r="636" spans="5:5">
-      <c r="E636" s="26"/>
+      <c r="E636" s="22"/>
     </row>
     <row r="637" spans="5:5">
-      <c r="E637" s="26"/>
+      <c r="E637" s="22"/>
     </row>
     <row r="638" spans="5:5">
-      <c r="E638" s="26"/>
+      <c r="E638" s="22"/>
     </row>
     <row r="639" spans="5:5">
-      <c r="E639" s="26"/>
+      <c r="E639" s="22"/>
     </row>
     <row r="640" spans="5:5">
-      <c r="E640" s="26"/>
+      <c r="E640" s="22"/>
     </row>
     <row r="641" spans="5:5">
-      <c r="E641" s="26"/>
+      <c r="E641" s="22"/>
     </row>
     <row r="642" spans="5:5">
-      <c r="E642" s="26"/>
+      <c r="E642" s="22"/>
     </row>
     <row r="643" spans="5:5">
-      <c r="E643" s="26"/>
+      <c r="E643" s="22"/>
     </row>
     <row r="644" spans="5:5">
-      <c r="E644" s="26"/>
+      <c r="E644" s="22"/>
     </row>
     <row r="645" spans="5:5">
-      <c r="E645" s="26"/>
+      <c r="E645" s="22"/>
     </row>
     <row r="646" spans="5:5">
-      <c r="E646" s="26"/>
+      <c r="E646" s="22"/>
     </row>
     <row r="647" spans="5:5">
-      <c r="E647" s="26"/>
+      <c r="E647" s="22"/>
     </row>
     <row r="648" spans="5:5">
-      <c r="E648" s="26"/>
+      <c r="E648" s="22"/>
     </row>
     <row r="649" spans="5:5">
-      <c r="E649" s="26"/>
+      <c r="E649" s="22"/>
     </row>
     <row r="650" spans="5:5">
-      <c r="E650" s="26"/>
+      <c r="E650" s="22"/>
     </row>
     <row r="651" spans="5:5">
-      <c r="E651" s="26"/>
+      <c r="E651" s="22"/>
     </row>
     <row r="652" spans="5:5">
-      <c r="E652" s="26"/>
+      <c r="E652" s="22"/>
     </row>
     <row r="653" spans="5:5">
-      <c r="E653" s="26"/>
+      <c r="E653" s="22"/>
     </row>
     <row r="654" spans="5:5">
-      <c r="E654" s="26"/>
+      <c r="E654" s="22"/>
     </row>
     <row r="655" spans="5:5">
-      <c r="E655" s="26"/>
+      <c r="E655" s="22"/>
     </row>
     <row r="656" spans="5:5">
-      <c r="E656" s="26"/>
+      <c r="E656" s="22"/>
     </row>
     <row r="657" spans="5:5">
-      <c r="E657" s="26"/>
+      <c r="E657" s="22"/>
     </row>
     <row r="658" spans="5:5">
-      <c r="E658" s="26"/>
+      <c r="E658" s="22"/>
     </row>
     <row r="659" spans="5:5">
-      <c r="E659" s="26"/>
+      <c r="E659" s="22"/>
     </row>
     <row r="660" spans="5:5">
-      <c r="E660" s="26"/>
+      <c r="E660" s="22"/>
     </row>
     <row r="661" spans="5:5">
-      <c r="E661" s="26"/>
+      <c r="E661" s="22"/>
     </row>
     <row r="662" spans="5:5">
-      <c r="E662" s="26"/>
+      <c r="E662" s="22"/>
     </row>
     <row r="663" spans="5:5">
-      <c r="E663" s="26"/>
+      <c r="E663" s="22"/>
     </row>
     <row r="664" spans="5:5">
-      <c r="E664" s="26"/>
+      <c r="E664" s="22"/>
     </row>
     <row r="665" spans="5:5">
-      <c r="E665" s="26"/>
+      <c r="E665" s="22"/>
     </row>
     <row r="666" spans="5:5">
-      <c r="E666" s="26"/>
+      <c r="E666" s="22"/>
     </row>
     <row r="667" spans="5:5">
-      <c r="E667" s="26"/>
+      <c r="E667" s="22"/>
     </row>
     <row r="668" spans="5:5">
-      <c r="E668" s="26"/>
+      <c r="E668" s="22"/>
     </row>
     <row r="669" spans="5:5">
-      <c r="E669" s="26"/>
+      <c r="E669" s="22"/>
     </row>
     <row r="670" spans="5:5">
-      <c r="E670" s="26"/>
+      <c r="E670" s="22"/>
     </row>
     <row r="671" spans="5:5">
-      <c r="E671" s="26"/>
+      <c r="E671" s="22"/>
     </row>
     <row r="672" spans="5:5">
-      <c r="E672" s="26"/>
+      <c r="E672" s="22"/>
     </row>
     <row r="673" spans="5:5">
-      <c r="E673" s="26"/>
+      <c r="E673" s="22"/>
     </row>
     <row r="674" spans="5:5">
-      <c r="E674" s="26"/>
+      <c r="E674" s="22"/>
     </row>
     <row r="675" spans="5:5">
-      <c r="E675" s="26"/>
+      <c r="E675" s="22"/>
     </row>
     <row r="676" spans="5:5">
-      <c r="E676" s="26"/>
+      <c r="E676" s="22"/>
     </row>
     <row r="677" spans="5:5">
-      <c r="E677" s="26"/>
+      <c r="E677" s="22"/>
     </row>
     <row r="678" spans="5:5">
-      <c r="E678" s="26"/>
+      <c r="E678" s="22"/>
     </row>
     <row r="679" spans="5:5">
-      <c r="E679" s="26"/>
+      <c r="E679" s="22"/>
     </row>
     <row r="680" spans="5:5">
-      <c r="E680" s="26"/>
+      <c r="E680" s="22"/>
     </row>
     <row r="681" spans="5:5">
-      <c r="E681" s="26"/>
+      <c r="E681" s="22"/>
     </row>
     <row r="682" spans="5:5">
-      <c r="E682" s="26"/>
+      <c r="E682" s="22"/>
     </row>
     <row r="683" spans="5:5">
-      <c r="E683" s="26"/>
+      <c r="E683" s="22"/>
     </row>
     <row r="684" spans="5:5">
-      <c r="E684" s="26"/>
+      <c r="E684" s="22"/>
     </row>
     <row r="685" spans="5:5">
-      <c r="E685" s="26"/>
+      <c r="E685" s="22"/>
     </row>
     <row r="686" spans="5:5">
-      <c r="E686" s="26"/>
+      <c r="E686" s="22"/>
     </row>
     <row r="687" spans="5:5">
-      <c r="E687" s="26"/>
+      <c r="E687" s="22"/>
     </row>
     <row r="688" spans="5:5">
-      <c r="E688" s="26"/>
+      <c r="E688" s="22"/>
     </row>
     <row r="689" spans="5:5">
-      <c r="E689" s="26"/>
+      <c r="E689" s="22"/>
     </row>
     <row r="690" spans="5:5">
-      <c r="E690" s="26"/>
+      <c r="E690" s="22"/>
     </row>
     <row r="691" spans="5:5">
-      <c r="E691" s="26"/>
+      <c r="E691" s="22"/>
     </row>
     <row r="692" spans="5:5">
-      <c r="E692" s="26"/>
+      <c r="E692" s="22"/>
     </row>
     <row r="693" spans="5:5">
-      <c r="E693" s="26"/>
+      <c r="E693" s="22"/>
     </row>
     <row r="694" spans="5:5">
-      <c r="E694" s="26"/>
+      <c r="E694" s="22"/>
     </row>
     <row r="695" spans="5:5">
-      <c r="E695" s="26"/>
+      <c r="E695" s="22"/>
     </row>
     <row r="696" spans="5:5">
-      <c r="E696" s="26"/>
+      <c r="E696" s="22"/>
     </row>
     <row r="697" spans="5:5">
-      <c r="E697" s="26"/>
+      <c r="E697" s="22"/>
     </row>
     <row r="698" spans="5:5">
-      <c r="E698" s="26"/>
+      <c r="E698" s="22"/>
     </row>
     <row r="699" spans="5:5">
-      <c r="E699" s="26"/>
+      <c r="E699" s="22"/>
     </row>
     <row r="700" spans="5:5">
-      <c r="E700" s="26"/>
+      <c r="E700" s="22"/>
     </row>
     <row r="701" spans="5:5">
-      <c r="E701" s="26"/>
+      <c r="E701" s="22"/>
     </row>
     <row r="702" spans="5:5">
-      <c r="E702" s="26"/>
+      <c r="E702" s="22"/>
     </row>
     <row r="703" spans="5:5">
-      <c r="E703" s="26"/>
+      <c r="E703" s="22"/>
     </row>
     <row r="704" spans="5:5">
-      <c r="E704" s="26"/>
+      <c r="E704" s="22"/>
     </row>
     <row r="705" spans="5:5">
-      <c r="E705" s="26"/>
+      <c r="E705" s="22"/>
     </row>
     <row r="706" spans="5:5">
-      <c r="E706" s="26"/>
+      <c r="E706" s="22"/>
     </row>
     <row r="707" spans="5:5">
-      <c r="E707" s="26"/>
+      <c r="E707" s="22"/>
     </row>
     <row r="708" spans="5:5">
-      <c r="E708" s="26"/>
+      <c r="E708" s="22"/>
     </row>
     <row r="709" spans="5:5">
-      <c r="E709" s="26"/>
+      <c r="E709" s="22"/>
     </row>
     <row r="710" spans="5:5">
-      <c r="E710" s="26"/>
+      <c r="E710" s="22"/>
     </row>
     <row r="711" spans="5:5">
-      <c r="E711" s="26"/>
+      <c r="E711" s="22"/>
     </row>
     <row r="712" spans="5:5">
-      <c r="E712" s="26"/>
+      <c r="E712" s="22"/>
     </row>
     <row r="713" spans="5:5">
-      <c r="E713" s="26"/>
+      <c r="E713" s="22"/>
     </row>
     <row r="714" spans="5:5">
-      <c r="E714" s="26"/>
+      <c r="E714" s="22"/>
     </row>
     <row r="715" spans="5:5">
-      <c r="E715" s="26"/>
+      <c r="E715" s="22"/>
     </row>
     <row r="716" spans="5:5">
-      <c r="E716" s="26"/>
+      <c r="E716" s="22"/>
     </row>
     <row r="717" spans="5:5">
-      <c r="E717" s="26"/>
+      <c r="E717" s="22"/>
     </row>
     <row r="718" spans="5:5">
-      <c r="E718" s="26"/>
+      <c r="E718" s="22"/>
     </row>
     <row r="719" spans="5:5">
-      <c r="E719" s="26"/>
+      <c r="E719" s="22"/>
     </row>
     <row r="720" spans="5:5">
-      <c r="E720" s="26"/>
+      <c r="E720" s="22"/>
     </row>
     <row r="721" spans="5:5">
-      <c r="E721" s="26"/>
+      <c r="E721" s="22"/>
     </row>
     <row r="722" spans="5:5">
-      <c r="E722" s="26"/>
+      <c r="E722" s="22"/>
     </row>
     <row r="723" spans="5:5">
-      <c r="E723" s="26"/>
+      <c r="E723" s="22"/>
     </row>
     <row r="724" spans="5:5">
-      <c r="E724" s="26"/>
+      <c r="E724" s="22"/>
     </row>
     <row r="725" spans="5:5">
-      <c r="E725" s="26"/>
+      <c r="E725" s="22"/>
     </row>
     <row r="726" spans="5:5">
-      <c r="E726" s="26"/>
+      <c r="E726" s="22"/>
     </row>
     <row r="727" spans="5:5">
-      <c r="E727" s="26"/>
+      <c r="E727" s="22"/>
     </row>
     <row r="728" spans="5:5">
-      <c r="E728" s="26"/>
+      <c r="E728" s="22"/>
     </row>
     <row r="729" spans="5:5">
-      <c r="E729" s="26"/>
+      <c r="E729" s="22"/>
     </row>
     <row r="730" spans="5:5">
-      <c r="E730" s="26"/>
+      <c r="E730" s="22"/>
     </row>
     <row r="731" spans="5:5">
-      <c r="E731" s="26"/>
+      <c r="E731" s="22"/>
     </row>
     <row r="732" spans="5:5">
-      <c r="E732" s="26"/>
+      <c r="E732" s="22"/>
     </row>
     <row r="733" spans="5:5">
-      <c r="E733" s="26"/>
+      <c r="E733" s="22"/>
     </row>
     <row r="734" spans="5:5">
-      <c r="E734" s="26"/>
+      <c r="E734" s="22"/>
     </row>
     <row r="735" spans="5:5">
-      <c r="E735" s="26"/>
+      <c r="E735" s="22"/>
     </row>
     <row r="736" spans="5:5">
-      <c r="E736" s="26"/>
+      <c r="E736" s="22"/>
     </row>
     <row r="737" spans="5:5">
-      <c r="E737" s="26"/>
+      <c r="E737" s="22"/>
     </row>
     <row r="738" spans="5:5">
-      <c r="E738" s="26"/>
+      <c r="E738" s="22"/>
     </row>
     <row r="739" spans="5:5">
-      <c r="E739" s="26"/>
+      <c r="E739" s="22"/>
     </row>
     <row r="740" spans="5:5">
-      <c r="E740" s="26"/>
+      <c r="E740" s="22"/>
     </row>
     <row r="741" spans="5:5">
-      <c r="E741" s="26"/>
+      <c r="E741" s="22"/>
     </row>
     <row r="742" spans="5:5">
-      <c r="E742" s="26"/>
+      <c r="E742" s="22"/>
     </row>
     <row r="743" spans="5:5">
-      <c r="E743" s="26"/>
+      <c r="E743" s="22"/>
     </row>
     <row r="744" spans="5:5">
-      <c r="E744" s="26"/>
+      <c r="E744" s="22"/>
     </row>
     <row r="745" spans="5:5">
-      <c r="E745" s="26"/>
+      <c r="E745" s="22"/>
     </row>
     <row r="746" spans="5:5">
-      <c r="E746" s="26"/>
+      <c r="E746" s="22"/>
     </row>
     <row r="747" spans="5:5">
-      <c r="E747" s="26"/>
+      <c r="E747" s="22"/>
     </row>
     <row r="748" spans="5:5">
-      <c r="E748" s="26"/>
+      <c r="E748" s="22"/>
     </row>
     <row r="749" spans="5:5">
-      <c r="E749" s="26"/>
+      <c r="E749" s="22"/>
     </row>
     <row r="750" spans="5:5">
-      <c r="E750" s="26"/>
+      <c r="E750" s="22"/>
     </row>
     <row r="751" spans="5:5">
-      <c r="E751" s="26"/>
+      <c r="E751" s="22"/>
     </row>
     <row r="752" spans="5:5">
-      <c r="E752" s="26"/>
+      <c r="E752" s="22"/>
     </row>
     <row r="753" spans="5:5">
-      <c r="E753" s="26"/>
+      <c r="E753" s="22"/>
     </row>
     <row r="754" spans="5:5">
-      <c r="E754" s="26"/>
+      <c r="E754" s="22"/>
     </row>
     <row r="755" spans="5:5">
-      <c r="E755" s="26"/>
+      <c r="E755" s="22"/>
     </row>
     <row r="756" spans="5:5">
-      <c r="E756" s="26"/>
+      <c r="E756" s="22"/>
     </row>
     <row r="757" spans="5:5">
-      <c r="E757" s="26"/>
+      <c r="E757" s="22"/>
     </row>
     <row r="758" spans="5:5">
-      <c r="E758" s="26"/>
+      <c r="E758" s="22"/>
     </row>
     <row r="759" spans="5:5">
-      <c r="E759" s="26"/>
+      <c r="E759" s="22"/>
     </row>
     <row r="760" spans="5:5">
-      <c r="E760" s="26"/>
+      <c r="E760" s="22"/>
     </row>
     <row r="761" spans="5:5">
-      <c r="E761" s="26"/>
+      <c r="E761" s="22"/>
     </row>
     <row r="762" spans="5:5">
-      <c r="E762" s="26"/>
+      <c r="E762" s="22"/>
     </row>
     <row r="763" spans="5:5">
-      <c r="E763" s="26"/>
+      <c r="E763" s="22"/>
     </row>
     <row r="764" spans="5:5">
-      <c r="E764" s="26"/>
+      <c r="E764" s="22"/>
     </row>
     <row r="765" spans="5:5">
-      <c r="E765" s="26"/>
+      <c r="E765" s="22"/>
     </row>
     <row r="766" spans="5:5">
-      <c r="E766" s="26"/>
+      <c r="E766" s="22"/>
     </row>
     <row r="767" spans="5:5">
-      <c r="E767" s="26"/>
+      <c r="E767" s="22"/>
     </row>
     <row r="768" spans="5:5">
-      <c r="E768" s="26"/>
+      <c r="E768" s="22"/>
     </row>
     <row r="769" spans="5:5">
-      <c r="E769" s="26"/>
+      <c r="E769" s="22"/>
     </row>
     <row r="770" spans="5:5">
-      <c r="E770" s="26"/>
+      <c r="E770" s="22"/>
     </row>
     <row r="771" spans="5:5">
-      <c r="E771" s="26"/>
+      <c r="E771" s="22"/>
     </row>
     <row r="772" spans="5:5">
-      <c r="E772" s="26"/>
+      <c r="E772" s="22"/>
     </row>
     <row r="773" spans="5:5">
-      <c r="E773" s="26"/>
+      <c r="E773" s="22"/>
     </row>
     <row r="774" spans="5:5">
-      <c r="E774" s="26"/>
+      <c r="E774" s="22"/>
     </row>
     <row r="775" spans="5:5">
-      <c r="E775" s="26"/>
+      <c r="E775" s="22"/>
     </row>
     <row r="776" spans="5:5">
-      <c r="E776" s="26"/>
+      <c r="E776" s="22"/>
     </row>
     <row r="777" spans="5:5">
-      <c r="E777" s="26"/>
+      <c r="E777" s="22"/>
     </row>
     <row r="778" spans="5:5">
-      <c r="E778" s="26"/>
+      <c r="E778" s="22"/>
     </row>
     <row r="779" spans="5:5">
-      <c r="E779" s="26"/>
+      <c r="E779" s="22"/>
     </row>
     <row r="780" spans="5:5">
-      <c r="E780" s="26"/>
+      <c r="E780" s="22"/>
     </row>
     <row r="781" spans="5:5">
-      <c r="E781" s="26"/>
+      <c r="E781" s="22"/>
     </row>
     <row r="782" spans="5:5">
-      <c r="E782" s="26"/>
+      <c r="E782" s="22"/>
     </row>
     <row r="783" spans="5:5">
-      <c r="E783" s="26"/>
+      <c r="E783" s="22"/>
     </row>
     <row r="784" spans="5:5">
-      <c r="E784" s="26"/>
+      <c r="E784" s="22"/>
     </row>
     <row r="785" spans="5:5">
-      <c r="E785" s="26"/>
+      <c r="E785" s="22"/>
     </row>
     <row r="786" spans="5:5">
-      <c r="E786" s="26"/>
+      <c r="E786" s="22"/>
     </row>
     <row r="787" spans="5:5">
-      <c r="E787" s="26"/>
+      <c r="E787" s="22"/>
     </row>
     <row r="788" spans="5:5">
-      <c r="E788" s="26"/>
+      <c r="E788" s="22"/>
     </row>
     <row r="789" spans="5:5">
-      <c r="E789" s="26"/>
+      <c r="E789" s="22"/>
     </row>
     <row r="790" spans="5:5">
-      <c r="E790" s="26"/>
+      <c r="E790" s="22"/>
     </row>
     <row r="791" spans="5:5">
-      <c r="E791" s="26"/>
+      <c r="E791" s="22"/>
     </row>
     <row r="792" spans="5:5">
-      <c r="E792" s="26"/>
+      <c r="E792" s="22"/>
     </row>
     <row r="793" spans="5:5">
-      <c r="E793" s="26"/>
+      <c r="E793" s="22"/>
     </row>
     <row r="794" spans="5:5">
-      <c r="E794" s="26"/>
+      <c r="E794" s="22"/>
     </row>
     <row r="795" spans="5:5">
-      <c r="E795" s="26"/>
+      <c r="E795" s="22"/>
     </row>
     <row r="796" spans="5:5">
-      <c r="E796" s="26"/>
+      <c r="E796" s="22"/>
     </row>
     <row r="797" spans="5:5">
-      <c r="E797" s="26"/>
+      <c r="E797" s="22"/>
     </row>
     <row r="798" spans="5:5">
-      <c r="E798" s="26"/>
+      <c r="E798" s="22"/>
     </row>
     <row r="799" spans="5:5">
-      <c r="E799" s="26"/>
+      <c r="E799" s="22"/>
     </row>
     <row r="800" spans="5:5">
-      <c r="E800" s="26"/>
+      <c r="E800" s="22"/>
     </row>
     <row r="801" spans="5:5">
-      <c r="E801" s="26"/>
+      <c r="E801" s="22"/>
     </row>
     <row r="802" spans="5:5">
-      <c r="E802" s="26"/>
+      <c r="E802" s="22"/>
     </row>
     <row r="803" spans="5:5">
-      <c r="E803" s="26"/>
+      <c r="E803" s="22"/>
     </row>
     <row r="804" spans="5:5">
-      <c r="E804" s="26"/>
+      <c r="E804" s="22"/>
     </row>
     <row r="805" spans="5:5">
-      <c r="E805" s="26"/>
+      <c r="E805" s="22"/>
     </row>
     <row r="806" spans="5:5">
-      <c r="E806" s="26"/>
+      <c r="E806" s="22"/>
     </row>
     <row r="807" spans="5:5">
-      <c r="E807" s="26"/>
+      <c r="E807" s="22"/>
     </row>
     <row r="808" spans="5:5">
-      <c r="E808" s="26"/>
+      <c r="E808" s="22"/>
     </row>
     <row r="809" spans="5:5">
-      <c r="E809" s="26"/>
+      <c r="E809" s="22"/>
     </row>
     <row r="810" spans="5:5">
-      <c r="E810" s="26"/>
+      <c r="E810" s="22"/>
     </row>
     <row r="811" spans="5:5">
-      <c r="E811" s="26"/>
+      <c r="E811" s="22"/>
     </row>
     <row r="812" spans="5:5">
-      <c r="E812" s="26"/>
+      <c r="E812" s="22"/>
     </row>
     <row r="813" spans="5:5">
-      <c r="E813" s="26"/>
+      <c r="E813" s="22"/>
     </row>
     <row r="814" spans="5:5">
-      <c r="E814" s="26"/>
+      <c r="E814" s="22"/>
     </row>
     <row r="815" spans="5:5">
-      <c r="E815" s="26"/>
+      <c r="E815" s="22"/>
     </row>
     <row r="816" spans="5:5">
-      <c r="E816" s="26"/>
+      <c r="E816" s="22"/>
     </row>
     <row r="817" spans="5:5">
-      <c r="E817" s="26"/>
+      <c r="E817" s="22"/>
     </row>
     <row r="818" spans="5:5">
-      <c r="E818" s="26"/>
+      <c r="E818" s="22"/>
     </row>
     <row r="819" spans="5:5">
-      <c r="E819" s="26"/>
+      <c r="E819" s="22"/>
     </row>
     <row r="820" spans="5:5">
-      <c r="E820" s="26"/>
+      <c r="E820" s="22"/>
     </row>
     <row r="821" spans="5:5">
-      <c r="E821" s="26"/>
+      <c r="E821" s="22"/>
     </row>
     <row r="822" spans="5:5">
-      <c r="E822" s="26"/>
+      <c r="E822" s="22"/>
     </row>
     <row r="823" spans="5:5">
-      <c r="E823" s="26"/>
+      <c r="E823" s="22"/>
     </row>
     <row r="824" spans="5:5">
-      <c r="E824" s="26"/>
+      <c r="E824" s="22"/>
     </row>
     <row r="825" spans="5:5">
-      <c r="E825" s="26"/>
+      <c r="E825" s="22"/>
     </row>
     <row r="826" spans="5:5">
-      <c r="E826" s="26"/>
+      <c r="E826" s="22"/>
     </row>
     <row r="827" spans="5:5">
-      <c r="E827" s="26"/>
+      <c r="E827" s="22"/>
     </row>
     <row r="828" spans="5:5">
-      <c r="E828" s="26"/>
+      <c r="E828" s="22"/>
     </row>
     <row r="829" spans="5:5">
-      <c r="E829" s="26"/>
+      <c r="E829" s="22"/>
     </row>
     <row r="830" spans="5:5">
-      <c r="E830" s="26"/>
+      <c r="E830" s="22"/>
     </row>
     <row r="831" spans="5:5">
-      <c r="E831" s="26"/>
+      <c r="E831" s="22"/>
     </row>
     <row r="832" spans="5:5">
-      <c r="E832" s="26"/>
+      <c r="E832" s="22"/>
     </row>
     <row r="833" spans="5:5">
-      <c r="E833" s="26"/>
+      <c r="E833" s="22"/>
     </row>
     <row r="834" spans="5:5">
-      <c r="E834" s="26"/>
+      <c r="E834" s="22"/>
     </row>
     <row r="835" spans="5:5">
-      <c r="E835" s="26"/>
+      <c r="E835" s="22"/>
     </row>
     <row r="836" spans="5:5">
-      <c r="E836" s="26"/>
+      <c r="E836" s="22"/>
     </row>
     <row r="837" spans="5:5">
-      <c r="E837" s="26"/>
+      <c r="E837" s="22"/>
     </row>
     <row r="838" spans="5:5">
-      <c r="E838" s="26"/>
+      <c r="E838" s="22"/>
     </row>
     <row r="839" spans="5:5">
-      <c r="E839" s="26"/>
+      <c r="E839" s="22"/>
     </row>
     <row r="840" spans="5:5">
-      <c r="E840" s="26"/>
+      <c r="E840" s="22"/>
     </row>
     <row r="841" spans="5:5">
-      <c r="E841" s="26"/>
+      <c r="E841" s="22"/>
     </row>
     <row r="842" spans="5:5">
-      <c r="E842" s="26"/>
+      <c r="E842" s="22"/>
     </row>
     <row r="843" spans="5:5">
-      <c r="E843" s="26"/>
+      <c r="E843" s="22"/>
     </row>
     <row r="844" spans="5:5">
-      <c r="E844" s="26"/>
+      <c r="E844" s="22"/>
     </row>
     <row r="845" spans="5:5">
-      <c r="E845" s="26"/>
+      <c r="E845" s="22"/>
     </row>
     <row r="846" spans="5:5">
-      <c r="E846" s="26"/>
+      <c r="E846" s="22"/>
     </row>
     <row r="847" spans="5:5">
-      <c r="E847" s="26"/>
+      <c r="E847" s="22"/>
     </row>
     <row r="848" spans="5:5">
-      <c r="E848" s="26"/>
+      <c r="E848" s="22"/>
     </row>
     <row r="849" spans="5:5">
-      <c r="E849" s="26"/>
+      <c r="E849" s="22"/>
     </row>
     <row r="850" spans="5:5">
-      <c r="E850" s="26"/>
+      <c r="E850" s="22"/>
     </row>
     <row r="851" spans="5:5">
-      <c r="E851" s="26"/>
+      <c r="E851" s="22"/>
     </row>
     <row r="852" spans="5:5">
-      <c r="E852" s="26"/>
+      <c r="E852" s="22"/>
     </row>
     <row r="853" spans="5:5">
-      <c r="E853" s="26"/>
+      <c r="E853" s="22"/>
     </row>
     <row r="854" spans="5:5">
-      <c r="E854" s="26"/>
+      <c r="E854" s="22"/>
     </row>
     <row r="855" spans="5:5">
-      <c r="E855" s="26"/>
+      <c r="E855" s="22"/>
     </row>
     <row r="856" spans="5:5">
-      <c r="E856" s="26"/>
+      <c r="E856" s="22"/>
     </row>
     <row r="857" spans="5:5">
-      <c r="E857" s="26"/>
+      <c r="E857" s="22"/>
     </row>
     <row r="858" spans="5:5">
-      <c r="E858" s="26"/>
+      <c r="E858" s="22"/>
     </row>
     <row r="859" spans="5:5">
-      <c r="E859" s="26"/>
+      <c r="E859" s="22"/>
     </row>
     <row r="860" spans="5:5">
-      <c r="E860" s="26"/>
+      <c r="E860" s="22"/>
     </row>
     <row r="861" spans="5:5">
-      <c r="E861" s="26"/>
+      <c r="E861" s="22"/>
     </row>
     <row r="862" spans="5:5">
-      <c r="E862" s="26"/>
+      <c r="E862" s="22"/>
     </row>
     <row r="863" spans="5:5">
-      <c r="E863" s="26"/>
+      <c r="E863" s="22"/>
     </row>
     <row r="864" spans="5:5">
-      <c r="E864" s="26"/>
+      <c r="E864" s="22"/>
     </row>
     <row r="865" spans="5:5">
-      <c r="E865" s="26"/>
+      <c r="E865" s="22"/>
     </row>
     <row r="866" spans="5:5">
-      <c r="E866" s="26"/>
+      <c r="E866" s="22"/>
     </row>
     <row r="867" spans="5:5">
-      <c r="E867" s="26"/>
+      <c r="E867" s="22"/>
     </row>
     <row r="868" spans="5:5">
-      <c r="E868" s="26"/>
+      <c r="E868" s="22"/>
     </row>
     <row r="869" spans="5:5">
-      <c r="E869" s="26"/>
+      <c r="E869" s="22"/>
     </row>
     <row r="870" spans="5:5">
-      <c r="E870" s="26"/>
+      <c r="E870" s="22"/>
     </row>
     <row r="871" spans="5:5">
-      <c r="E871" s="26"/>
+      <c r="E871" s="22"/>
     </row>
     <row r="872" spans="5:5">
-      <c r="E872" s="26"/>
+      <c r="E872" s="22"/>
     </row>
     <row r="873" spans="5:5">
-      <c r="E873" s="26"/>
+      <c r="E873" s="22"/>
     </row>
     <row r="874" spans="5:5">
-      <c r="E874" s="26"/>
+      <c r="E874" s="22"/>
     </row>
     <row r="875" spans="5:5">
-      <c r="E875" s="26"/>
+      <c r="E875" s="22"/>
     </row>
     <row r="876" spans="5:5">
-      <c r="E876" s="26"/>
+      <c r="E876" s="22"/>
     </row>
     <row r="877" spans="5:5">
-      <c r="E877" s="26"/>
+      <c r="E877" s="22"/>
     </row>
     <row r="878" spans="5:5">
-      <c r="E878" s="26"/>
+      <c r="E878" s="22"/>
     </row>
     <row r="879" spans="5:5">
-      <c r="E879" s="26"/>
+      <c r="E879" s="22"/>
     </row>
     <row r="880" spans="5:5">
-      <c r="E880" s="26"/>
+      <c r="E880" s="22"/>
     </row>
     <row r="881" spans="5:5">
-      <c r="E881" s="26"/>
+      <c r="E881" s="22"/>
     </row>
     <row r="882" spans="5:5">
-      <c r="E882" s="26"/>
+      <c r="E882" s="22"/>
     </row>
     <row r="883" spans="5:5">
-      <c r="E883" s="26"/>
+      <c r="E883" s="22"/>
     </row>
     <row r="884" spans="5:5">
-      <c r="E884" s="26"/>
+      <c r="E884" s="22"/>
     </row>
     <row r="885" spans="5:5">
-      <c r="E885" s="26"/>
+      <c r="E885" s="22"/>
     </row>
     <row r="886" spans="5:5">
-      <c r="E886" s="26"/>
+      <c r="E886" s="22"/>
     </row>
     <row r="887" spans="5:5">
-      <c r="E887" s="26"/>
+      <c r="E887" s="22"/>
     </row>
     <row r="888" spans="5:5">
-      <c r="E888" s="26"/>
+      <c r="E888" s="22"/>
     </row>
     <row r="889" spans="5:5">
-      <c r="E889" s="26"/>
+      <c r="E889" s="22"/>
     </row>
     <row r="890" spans="5:5">
-      <c r="E890" s="26"/>
+      <c r="E890" s="22"/>
     </row>
     <row r="891" spans="5:5">
-      <c r="E891" s="26"/>
+      <c r="E891" s="22"/>
     </row>
     <row r="892" spans="5:5">
-      <c r="E892" s="26"/>
+      <c r="E892" s="22"/>
     </row>
     <row r="893" spans="5:5">
-      <c r="E893" s="26"/>
+      <c r="E893" s="22"/>
     </row>
     <row r="894" spans="5:5">
-      <c r="E894" s="26"/>
+      <c r="E894" s="22"/>
     </row>
     <row r="895" spans="5:5">
-      <c r="E895" s="26"/>
+      <c r="E895" s="22"/>
     </row>
     <row r="896" spans="5:5">
-      <c r="E896" s="26"/>
+      <c r="E896" s="22"/>
     </row>
     <row r="897" spans="5:5">
-      <c r="E897" s="26"/>
+      <c r="E897" s="22"/>
     </row>
     <row r="898" spans="5:5">
-      <c r="E898" s="26"/>
+      <c r="E898" s="22"/>
     </row>
     <row r="899" spans="5:5">
-      <c r="E899" s="26"/>
+      <c r="E899" s="22"/>
     </row>
     <row r="900" spans="5:5">
-      <c r="E900" s="26"/>
+      <c r="E900" s="22"/>
     </row>
     <row r="901" spans="5:5">
-      <c r="E901" s="26"/>
+      <c r="E901" s="22"/>
     </row>
     <row r="902" spans="5:5">
-      <c r="E902" s="26"/>
+      <c r="E902" s="22"/>
     </row>
     <row r="903" spans="5:5">
-      <c r="E903" s="26"/>
+      <c r="E903" s="22"/>
     </row>
     <row r="904" spans="5:5">
-      <c r="E904" s="26"/>
+      <c r="E904" s="22"/>
     </row>
     <row r="905" spans="5:5">
-      <c r="E905" s="26"/>
+      <c r="E905" s="22"/>
     </row>
     <row r="906" spans="5:5">
-      <c r="E906" s="26"/>
+      <c r="E906" s="22"/>
     </row>
     <row r="907" spans="5:5">
-      <c r="E907" s="26"/>
+      <c r="E907" s="22"/>
     </row>
     <row r="908" spans="5:5">
-      <c r="E908" s="26"/>
+      <c r="E908" s="22"/>
     </row>
     <row r="909" spans="5:5">
-      <c r="E909" s="26"/>
+      <c r="E909" s="22"/>
     </row>
     <row r="910" spans="5:5">
-      <c r="E910" s="26"/>
+      <c r="E910" s="22"/>
     </row>
     <row r="911" spans="5:5">
-      <c r="E911" s="26"/>
+      <c r="E911" s="22"/>
     </row>
     <row r="912" spans="5:5">
-      <c r="E912" s="26"/>
+      <c r="E912" s="22"/>
     </row>
     <row r="913" spans="5:5">
-      <c r="E913" s="26"/>
+      <c r="E913" s="22"/>
     </row>
     <row r="914" spans="5:5">
-      <c r="E914" s="26"/>
+      <c r="E914" s="22"/>
     </row>
     <row r="915" spans="5:5">
-      <c r="E915" s="26"/>
+      <c r="E915" s="22"/>
     </row>
     <row r="916" spans="5:5">
-      <c r="E916" s="26"/>
+      <c r="E916" s="22"/>
     </row>
     <row r="917" spans="5:5">
-      <c r="E917" s="26"/>
+      <c r="E917" s="22"/>
     </row>
     <row r="918" spans="5:5">
-      <c r="E918" s="26"/>
+      <c r="E918" s="22"/>
     </row>
     <row r="919" spans="5:5">
-      <c r="E919" s="26"/>
+      <c r="E919" s="22"/>
     </row>
     <row r="920" spans="5:5">
-      <c r="E920" s="26"/>
+      <c r="E920" s="22"/>
     </row>
     <row r="921" spans="5:5">
-      <c r="E921" s="26"/>
+      <c r="E921" s="22"/>
     </row>
     <row r="922" spans="5:5">
-      <c r="E922" s="26"/>
+      <c r="E922" s="22"/>
     </row>
     <row r="923" spans="5:5">
-      <c r="E923" s="26"/>
+      <c r="E923" s="22"/>
     </row>
     <row r="924" spans="5:5">
-      <c r="E924" s="26"/>
+      <c r="E924" s="22"/>
     </row>
     <row r="925" spans="5:5">
-      <c r="E925" s="26"/>
+      <c r="E925" s="22"/>
     </row>
     <row r="926" spans="5:5">
-      <c r="E926" s="26"/>
+      <c r="E926" s="22"/>
     </row>
     <row r="927" spans="5:5">
-      <c r="E927" s="26"/>
+      <c r="E927" s="22"/>
     </row>
     <row r="928" spans="5:5">
-      <c r="E928" s="26"/>
+      <c r="E928" s="22"/>
     </row>
     <row r="929" spans="5:5">
-      <c r="E929" s="26"/>
+      <c r="E929" s="22"/>
     </row>
     <row r="930" spans="5:5">
-      <c r="E930" s="26"/>
+      <c r="E930" s="22"/>
     </row>
     <row r="931" spans="5:5">
-      <c r="E931" s="26"/>
+      <c r="E931" s="22"/>
     </row>
     <row r="932" spans="5:5">
-      <c r="E932" s="26"/>
+      <c r="E932" s="22"/>
     </row>
     <row r="933" spans="5:5">
-      <c r="E933" s="26"/>
+      <c r="E933" s="22"/>
     </row>
     <row r="934" spans="5:5">
-      <c r="E934" s="26"/>
+      <c r="E934" s="22"/>
     </row>
     <row r="935" spans="5:5">
-      <c r="E935" s="26"/>
+      <c r="E935" s="22"/>
     </row>
     <row r="936" spans="5:5">
-      <c r="E936" s="26"/>
+      <c r="E936" s="22"/>
     </row>
     <row r="937" spans="5:5">
-      <c r="E937" s="26"/>
+      <c r="E937" s="22"/>
     </row>
     <row r="938" spans="5:5">
-      <c r="E938" s="26"/>
+      <c r="E938" s="22"/>
     </row>
     <row r="939" spans="5:5">
-      <c r="E939" s="26"/>
+      <c r="E939" s="22"/>
     </row>
     <row r="940" spans="5:5">
-      <c r="E940" s="26"/>
+      <c r="E940" s="22"/>
     </row>
     <row r="941" spans="5:5">
-      <c r="E941" s="26"/>
+      <c r="E941" s="22"/>
     </row>
     <row r="942" spans="5:5">
-      <c r="E942" s="26"/>
+      <c r="E942" s="22"/>
     </row>
     <row r="943" spans="5:5">
-      <c r="E943" s="26"/>
+      <c r="E943" s="22"/>
     </row>
     <row r="944" spans="5:5">
-      <c r="E944" s="26"/>
+      <c r="E944" s="22"/>
     </row>
     <row r="945" spans="5:5">
-      <c r="E945" s="26"/>
+      <c r="E945" s="22"/>
     </row>
     <row r="946" spans="5:5">
-      <c r="E946" s="26"/>
+      <c r="E946" s="22"/>
     </row>
     <row r="947" spans="5:5">
-      <c r="E947" s="26"/>
+      <c r="E947" s="22"/>
     </row>
     <row r="948" spans="5:5">
-      <c r="E948" s="26"/>
+      <c r="E948" s="22"/>
     </row>
     <row r="949" spans="5:5">
-      <c r="E949" s="26"/>
+      <c r="E949" s="22"/>
     </row>
     <row r="950" spans="5:5">
-      <c r="E950" s="26"/>
+      <c r="E950" s="22"/>
     </row>
     <row r="951" spans="5:5">
-      <c r="E951" s="26"/>
+      <c r="E951" s="22"/>
     </row>
     <row r="952" spans="5:5">
-      <c r="E952" s="26"/>
+      <c r="E952" s="22"/>
     </row>
     <row r="953" spans="5:5">
-      <c r="E953" s="26"/>
+      <c r="E953" s="22"/>
     </row>
     <row r="954" spans="5:5">
-      <c r="E954" s="26"/>
+      <c r="E954" s="22"/>
     </row>
     <row r="955" spans="5:5">
-      <c r="E955" s="26"/>
+      <c r="E955" s="22"/>
     </row>
     <row r="956" spans="5:5">
-      <c r="E956" s="26"/>
+      <c r="E956" s="22"/>
     </row>
     <row r="957" spans="5:5">
-      <c r="E957" s="26"/>
+      <c r="E957" s="22"/>
     </row>
     <row r="958" spans="5:5">
-      <c r="E958" s="26"/>
+      <c r="E958" s="22"/>
     </row>
     <row r="959" spans="5:5">
-      <c r="E959" s="26"/>
+      <c r="E959" s="22"/>
     </row>
     <row r="960" spans="5:5">
-      <c r="E960" s="26"/>
+      <c r="E960" s="22"/>
     </row>
     <row r="961" spans="5:5">
-      <c r="E961" s="26"/>
+      <c r="E961" s="22"/>
     </row>
     <row r="962" spans="5:5">
-      <c r="E962" s="26"/>
+      <c r="E962" s="22"/>
     </row>
     <row r="963" spans="5:5">
-      <c r="E963" s="26"/>
+      <c r="E963" s="22"/>
     </row>
     <row r="964" spans="5:5">
-      <c r="E964" s="26"/>
+      <c r="E964" s="22"/>
     </row>
     <row r="965" spans="5:5">
-      <c r="E965" s="26"/>
+      <c r="E965" s="22"/>
     </row>
     <row r="966" spans="5:5">
-      <c r="E966" s="26"/>
+      <c r="E966" s="22"/>
     </row>
     <row r="967" spans="5:5">
-      <c r="E967" s="26"/>
+      <c r="E967" s="22"/>
     </row>
     <row r="968" spans="5:5">
-      <c r="E968" s="26"/>
+      <c r="E968" s="22"/>
     </row>
     <row r="969" spans="5:5">
-      <c r="E969" s="26"/>
+      <c r="E969" s="22"/>
     </row>
     <row r="970" spans="5:5">
-      <c r="E970" s="26"/>
+      <c r="E970" s="22"/>
     </row>
     <row r="971" spans="5:5">
-      <c r="E971" s="26"/>
+      <c r="E971" s="22"/>
     </row>
     <row r="972" spans="5:5">
-      <c r="E972" s="26"/>
+      <c r="E972" s="22"/>
     </row>
     <row r="973" spans="5:5">
-      <c r="E973" s="26"/>
+      <c r="E973" s="22"/>
     </row>
     <row r="974" spans="5:5">
-      <c r="E974" s="26"/>
+      <c r="E974" s="22"/>
     </row>
     <row r="975" spans="5:5">
-      <c r="E975" s="26"/>
+      <c r="E975" s="22"/>
     </row>
     <row r="976" spans="5:5">
-      <c r="E976" s="26"/>
+      <c r="E976" s="22"/>
     </row>
     <row r="977" spans="5:5">
-      <c r="E977" s="26"/>
+      <c r="E977" s="22"/>
     </row>
     <row r="978" spans="5:5">
-      <c r="E978" s="26"/>
+      <c r="E978" s="22"/>
     </row>
     <row r="979" spans="5:5">
-      <c r="E979" s="26"/>
+      <c r="E979" s="22"/>
     </row>
     <row r="980" spans="5:5">
-      <c r="E980" s="26"/>
+      <c r="E980" s="22"/>
     </row>
     <row r="981" spans="5:5">
-      <c r="E981" s="26"/>
+      <c r="E981" s="22"/>
     </row>
     <row r="982" spans="5:5">
-      <c r="E982" s="26"/>
+      <c r="E982" s="22"/>
     </row>
     <row r="983" spans="5:5">
-      <c r="E983" s="26"/>
+      <c r="E983" s="22"/>
     </row>
     <row r="984" spans="5:5">
-      <c r="E984" s="26"/>
+      <c r="E984" s="22"/>
     </row>
     <row r="985" spans="5:5">
-      <c r="E985" s="26"/>
+      <c r="E985" s="22"/>
     </row>
     <row r="986" spans="5:5">
-      <c r="E986" s="26"/>
+      <c r="E986" s="22"/>
     </row>
     <row r="987" spans="5:5">
-      <c r="E987" s="26"/>
+      <c r="E987" s="22"/>
     </row>
     <row r="988" spans="5:5">
-      <c r="E988" s="26"/>
+      <c r="E988" s="22"/>
     </row>
     <row r="989" spans="5:5">
-      <c r="E989" s="26"/>
+      <c r="E989" s="22"/>
     </row>
     <row r="990" spans="5:5">
-      <c r="E990" s="26"/>
+      <c r="E990" s="22"/>
     </row>
     <row r="991" spans="5:5">
-      <c r="E991" s="26"/>
+      <c r="E991" s="22"/>
     </row>
     <row r="992" spans="5:5">
-      <c r="E992" s="26"/>
+      <c r="E992" s="22"/>
     </row>
     <row r="993" spans="5:5">
-      <c r="E993" s="26"/>
+      <c r="E993" s="22"/>
     </row>
     <row r="994" spans="5:5">
-      <c r="E994" s="26"/>
+      <c r="E994" s="22"/>
     </row>
     <row r="995" spans="5:5">
-      <c r="E995" s="26"/>
+      <c r="E995" s="22"/>
     </row>
     <row r="996" spans="5:5">
-      <c r="E996" s="26"/>
+      <c r="E996" s="22"/>
     </row>
     <row r="997" spans="5:5">
-      <c r="E997" s="26"/>
+      <c r="E997" s="22"/>
     </row>
     <row r="998" spans="5:5">
-      <c r="E998" s="26"/>
+      <c r="E998" s="22"/>
     </row>
     <row r="999" spans="5:5">
-      <c r="E999" s="26"/>
+      <c r="E999" s="22"/>
     </row>
     <row r="1000" spans="5:5">
-      <c r="E1000" s="26"/>
+      <c r="E1000" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="4">
